--- a/Process_Design/T=820K,P=6atm.xlsx
+++ b/Process_Design/T=820K,P=6atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Economic Potential 2</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Length(ft)</t>
   </si>
   <si>
+    <t>Fc</t>
+  </si>
+  <si>
     <t>installation_cost</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>annual_capital_investment</t>
+  </si>
+  <si>
+    <t>reactor_volume</t>
   </si>
   <si>
     <t>catalyst_cost</t>
@@ -76,10 +82,28 @@
     <t>Reactor_Heating_Cost</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TLM</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>annual_reactor_heating_cost</t>
   </si>
   <si>
     <t>Water_Cost</t>
+  </si>
+  <si>
+    <t>Reactor Q</t>
+  </si>
+  <si>
+    <t>delta_temp</t>
+  </si>
+  <si>
+    <t>price_coolingwater</t>
   </si>
   <si>
     <t>volume_flowrate</t>
@@ -91,6 +115,12 @@
     <t>Furnace_Cost</t>
   </si>
   <si>
+    <t>Furnace Heat Duty</t>
+  </si>
+  <si>
+    <t>price_fuel</t>
+  </si>
+  <si>
     <t>annual_operating_cost</t>
   </si>
   <si>
@@ -98,6 +128,15 @@
   </si>
   <si>
     <t>Pump_Cost</t>
+  </si>
+  <si>
+    <t>pressure drop</t>
+  </si>
+  <si>
+    <t>shaft work</t>
+  </si>
+  <si>
+    <t>price_electricity</t>
   </si>
   <si>
     <t>annual_pump_cost</t>
@@ -467,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,106 +577,151 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
+      <c r="BQ1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:69">
       <c r="B2">
         <v>0.056012</v>
       </c>
@@ -675,112 +759,157 @@
         <v>14.7645</v>
       </c>
       <c r="O2">
+        <v>2.3625</v>
+      </c>
+      <c r="P2">
         <v>38825.71561812708</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>81378.69993559436</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>27126.23331186478</v>
       </c>
-      <c r="R2">
+      <c r="S2">
+        <v>0.7156940763959249</v>
+      </c>
+      <c r="T2">
         <v>567.2233402475904</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>48154.89815643607</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>75281.13146830085</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.056012</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>113.565</v>
+      </c>
+      <c r="Z2">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA2">
+        <v>435.5416422388207</v>
+      </c>
+      <c r="AB2">
+        <v>3.7935</v>
+      </c>
+      <c r="AC2">
         <v>205705.8896431216</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>429925.3093541242</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>143308.4364513747</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>143308.4364513747</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>0.056012</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
+        <v>-2.3983793</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL2">
         <v>840731.0619370781</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
         <v>6826.736222929074</v>
       </c>
-      <c r="AF2">
+      <c r="AO2">
         <v>0.056012</v>
       </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>480.73799488064</v>
+      </c>
+      <c r="AQ2">
+        <v>1.75</v>
+      </c>
+      <c r="AR2">
+        <v>20402466.57422102</v>
+      </c>
+      <c r="AS2">
+        <v>42641155.14012193</v>
+      </c>
+      <c r="AT2">
+        <v>14213718.38004064</v>
+      </c>
+      <c r="AU2">
+        <v>3.8</v>
+      </c>
+      <c r="AV2">
         <v>14888455.70145342</v>
       </c>
-      <c r="AH2">
-        <v>20402466.57422102</v>
-      </c>
-      <c r="AI2">
-        <v>42641155.14012193</v>
-      </c>
-      <c r="AJ2">
-        <v>14213718.38004064</v>
-      </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>29102174.08149406</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>0.056012</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
+        <v>506625</v>
+      </c>
+      <c r="BA2">
+        <v>51221.88415436469</v>
+      </c>
+      <c r="BB2">
+        <v>32397.08821445475</v>
+      </c>
+      <c r="BC2">
+        <v>67709.91436821042</v>
+      </c>
+      <c r="BD2">
+        <v>22569.97145607014</v>
+      </c>
+      <c r="BE2">
+        <v>0.035</v>
+      </c>
+      <c r="BF2">
         <v>19593.72730995377</v>
       </c>
-      <c r="AO2">
-        <v>32397.08821445475</v>
-      </c>
-      <c r="AP2">
-        <v>67709.91436821042</v>
-      </c>
-      <c r="AQ2">
-        <v>22569.97145607014</v>
-      </c>
-      <c r="AR2">
+      <c r="BG2">
         <v>42163.69876602391</v>
       </c>
-      <c r="AT2">
+      <c r="BI2">
         <v>0.056012</v>
       </c>
-      <c r="AU2">
+      <c r="BJ2">
         <v>0.9155684354956033</v>
       </c>
-      <c r="AV2">
+      <c r="BK2">
         <v>75281.13146830085</v>
       </c>
-      <c r="AW2">
+      <c r="BL2">
         <v>143308.4364513747</v>
       </c>
-      <c r="AX2">
+      <c r="BM2">
         <v>29102174.08149406</v>
       </c>
-      <c r="AY2">
+      <c r="BN2">
         <v>42163.69876602391</v>
       </c>
-      <c r="AZ2">
+      <c r="BO2">
         <v>6826.736222929074</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>68245071.85918193</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>38875317.77477924</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:69">
       <c r="B3">
         <v>0.097008</v>
       </c>
@@ -818,112 +947,157 @@
         <v>15.453792166</v>
       </c>
       <c r="O3">
+        <v>2.3625</v>
+      </c>
+      <c r="P3">
         <v>42280.17282436914</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>88619.24223987773</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>29539.74741329257</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>0.820686197768051</v>
+      </c>
+      <c r="T3">
         <v>650.4348460410689</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>55219.20828369492</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>84758.9556969875</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.097008</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>113.565</v>
+      </c>
+      <c r="Z3">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA3">
+        <v>450.4648289007866</v>
+      </c>
+      <c r="AB3">
+        <v>3.7935</v>
+      </c>
+      <c r="AC3">
         <v>210260.1688118413</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>439443.7528167482</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>146481.2509389161</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>146481.2509389161</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.097008</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>-2.4805562</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL3">
         <v>869537.4614935191</v>
       </c>
-      <c r="AD3">
+      <c r="AM3">
         <v>7060.644187327374</v>
       </c>
-      <c r="AF3">
+      <c r="AO3">
         <v>0.097008</v>
       </c>
-      <c r="AG3">
+      <c r="AP3">
+        <v>287.21718978708</v>
+      </c>
+      <c r="AQ3">
+        <v>1.75</v>
+      </c>
+      <c r="AR3">
+        <v>13168592.50242865</v>
+      </c>
+      <c r="AS3">
+        <v>27522358.33007589</v>
+      </c>
+      <c r="AT3">
+        <v>9174119.443358628</v>
+      </c>
+      <c r="AU3">
+        <v>3.8</v>
+      </c>
+      <c r="AV3">
         <v>8895116.367705867</v>
       </c>
-      <c r="AH3">
-        <v>13168592.50242865</v>
-      </c>
-      <c r="AI3">
-        <v>27522358.33007589</v>
-      </c>
-      <c r="AJ3">
-        <v>9174119.443358628</v>
-      </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>18069235.8110645</v>
       </c>
-      <c r="AM3">
+      <c r="AY3">
         <v>0.097008</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
+        <v>506625</v>
+      </c>
+      <c r="BA3">
+        <v>30606.67299646509</v>
+      </c>
+      <c r="BB3">
+        <v>23414.12223566568</v>
+      </c>
+      <c r="BC3">
+        <v>48935.51547254126</v>
+      </c>
+      <c r="BD3">
+        <v>16311.83849084709</v>
+      </c>
+      <c r="BE3">
+        <v>0.035</v>
+      </c>
+      <c r="BF3">
         <v>11707.8630444437</v>
       </c>
-      <c r="AO3">
-        <v>23414.12223566568</v>
-      </c>
-      <c r="AP3">
-        <v>48935.51547254126</v>
-      </c>
-      <c r="AQ3">
-        <v>16311.83849084709</v>
-      </c>
-      <c r="AR3">
+      <c r="BG3">
         <v>28019.70153529078</v>
       </c>
-      <c r="AT3">
+      <c r="BI3">
         <v>0.097008</v>
       </c>
-      <c r="AU3">
+      <c r="BJ3">
         <v>0.8857910003774812</v>
       </c>
-      <c r="AV3">
+      <c r="BK3">
         <v>84758.9556969875</v>
       </c>
-      <c r="AW3">
+      <c r="BL3">
         <v>146481.2509389161</v>
       </c>
-      <c r="AX3">
+      <c r="BM3">
         <v>18069235.8110645</v>
       </c>
-      <c r="AY3">
+      <c r="BN3">
         <v>28019.70153529078</v>
       </c>
-      <c r="AZ3">
+      <c r="BO3">
         <v>7060.644187327374</v>
       </c>
-      <c r="BA3">
+      <c r="BP3">
         <v>67634502.87517126</v>
       </c>
-      <c r="BB3">
+      <c r="BQ3">
         <v>49298946.51174824</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:69">
       <c r="B4">
         <v>0.131223</v>
       </c>
@@ -961,112 +1135,157 @@
         <v>16.175267661</v>
       </c>
       <c r="O4">
+        <v>2.3625</v>
+      </c>
+      <c r="P4">
         <v>46041.9085807294</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>96503.84038520882</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>32167.94679506961</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>0.9410776119237015</v>
+      </c>
+      <c r="T4">
         <v>745.8510613301298</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>63319.64739417248</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>95487.59418924208</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.131223</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>113.565</v>
+      </c>
+      <c r="Z4">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA4">
+        <v>466.957333730957</v>
+      </c>
+      <c r="AB4">
+        <v>3.7935</v>
+      </c>
+      <c r="AC4">
         <v>215232.381883801</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>449835.6781371441</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>149945.2260457147</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>149945.2260457147</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>0.131223</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
+        <v>-2.5713748</v>
+      </c>
+      <c r="AJ4">
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL4">
         <v>901373.1340335709</v>
       </c>
-      <c r="AD4">
+      <c r="AM4">
         <v>7319.149848352595</v>
       </c>
-      <c r="AF4">
+      <c r="AO4">
         <v>0.131223</v>
       </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>220.290386680784</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>10510096.60476474</v>
+      </c>
+      <c r="AS4">
+        <v>21966101.90395831</v>
+      </c>
+      <c r="AT4">
+        <v>7322033.967986104</v>
+      </c>
+      <c r="AU4">
+        <v>3.8</v>
+      </c>
+      <c r="AV4">
         <v>6822393.275503879</v>
       </c>
-      <c r="AH4">
-        <v>10510096.60476474</v>
-      </c>
-      <c r="AI4">
-        <v>21966101.90395831</v>
-      </c>
-      <c r="AJ4">
-        <v>7322033.967986104</v>
-      </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>14144427.24348998</v>
       </c>
-      <c r="AM4">
+      <c r="AY4">
         <v>0.131223</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
+        <v>506625</v>
+      </c>
+      <c r="BA4">
+        <v>23477.46843268163</v>
+      </c>
+      <c r="BB4">
+        <v>19764.21357345388</v>
+      </c>
+      <c r="BC4">
+        <v>41307.20636851861</v>
+      </c>
+      <c r="BD4">
+        <v>13769.0687895062</v>
+      </c>
+      <c r="BE4">
+        <v>0.035</v>
+      </c>
+      <c r="BF4">
         <v>8980.753480518219</v>
       </c>
-      <c r="AO4">
-        <v>19764.21357345388</v>
-      </c>
-      <c r="AP4">
-        <v>41307.20636851861</v>
-      </c>
-      <c r="AQ4">
-        <v>13769.0687895062</v>
-      </c>
-      <c r="AR4">
+      <c r="BG4">
         <v>22749.82227002442</v>
       </c>
-      <c r="AT4">
+      <c r="BI4">
         <v>0.131223</v>
       </c>
-      <c r="AU4">
+      <c r="BJ4">
         <v>0.8546237236287487</v>
       </c>
-      <c r="AV4">
+      <c r="BK4">
         <v>95487.59418924208</v>
       </c>
-      <c r="AW4">
+      <c r="BL4">
         <v>149945.2260457147</v>
       </c>
-      <c r="AX4">
+      <c r="BM4">
         <v>14144427.24348998</v>
       </c>
-      <c r="AY4">
+      <c r="BN4">
         <v>22749.82227002442</v>
       </c>
-      <c r="AZ4">
+      <c r="BO4">
         <v>7319.149848352595</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>66960756.0139534</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>52540826.9781101</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:69">
       <c r="B5">
         <v>0.16</v>
       </c>
@@ -1104,112 +1323,157 @@
         <v>16.930422621</v>
       </c>
       <c r="O5">
+        <v>2.3625</v>
+      </c>
+      <c r="P5">
         <v>50138.37038851402</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>105090.0243343254</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>35030.0081114418</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>1.079131623350852</v>
+      </c>
+      <c r="T5">
         <v>855.2657680867178</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>72608.50010319531</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>107638.5082146371</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.16</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>113.565</v>
+      </c>
+      <c r="Z5">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA5">
+        <v>485.3153980623785</v>
+      </c>
+      <c r="AB5">
+        <v>3.7935</v>
+      </c>
+      <c r="AC5">
         <v>220695.2965207879</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>461253.1697284468</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>153751.0565761489</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>153751.0565761489</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>0.16</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>-2.6724664</v>
+      </c>
+      <c r="AJ5">
+        <v>20</v>
+      </c>
+      <c r="AK5">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL5">
         <v>936809.9176236052</v>
       </c>
-      <c r="AD5">
+      <c r="AM5">
         <v>7606.896531103674</v>
       </c>
-      <c r="AF5">
+      <c r="AO5">
         <v>0.16</v>
       </c>
-      <c r="AG5">
+      <c r="AP5">
+        <v>188.403036271968</v>
+      </c>
+      <c r="AQ5">
+        <v>1.75</v>
+      </c>
+      <c r="AR5">
+        <v>9202063.108132148</v>
+      </c>
+      <c r="AS5">
+        <v>19232311.89599619</v>
+      </c>
+      <c r="AT5">
+        <v>6410770.631998729</v>
+      </c>
+      <c r="AU5">
+        <v>3.8</v>
+      </c>
+      <c r="AV5">
         <v>5834842.033342849</v>
       </c>
-      <c r="AH5">
-        <v>9202063.108132148</v>
-      </c>
-      <c r="AI5">
-        <v>19232311.89599619</v>
-      </c>
-      <c r="AJ5">
-        <v>6410770.631998729</v>
-      </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>12245612.66534158</v>
       </c>
-      <c r="AM5">
+      <c r="AY5">
         <v>0.16</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
+        <v>506625</v>
+      </c>
+      <c r="BA5">
+        <v>20080.95677776574</v>
+      </c>
+      <c r="BB5">
+        <v>17870.0766713814</v>
+      </c>
+      <c r="BC5">
+        <v>37348.46024318713</v>
+      </c>
+      <c r="BD5">
+        <v>12449.48674772904</v>
+      </c>
+      <c r="BE5">
+        <v>0.035</v>
+      </c>
+      <c r="BF5">
         <v>7681.497815284535</v>
       </c>
-      <c r="AO5">
-        <v>17870.0766713814</v>
-      </c>
-      <c r="AP5">
-        <v>37348.46024318713</v>
-      </c>
-      <c r="AQ5">
-        <v>12449.48674772904</v>
-      </c>
-      <c r="AR5">
+      <c r="BG5">
         <v>20130.98456301358</v>
       </c>
-      <c r="AT5">
+      <c r="BI5">
         <v>0.16</v>
       </c>
-      <c r="AU5">
+      <c r="BJ5">
         <v>0.8221392771740993</v>
       </c>
-      <c r="AV5">
+      <c r="BK5">
         <v>107638.5082146371</v>
       </c>
-      <c r="AW5">
+      <c r="BL5">
         <v>153751.0565761489</v>
       </c>
-      <c r="AX5">
+      <c r="BM5">
         <v>12245612.66534158</v>
       </c>
-      <c r="AY5">
+      <c r="BN5">
         <v>20130.98456301358</v>
       </c>
-      <c r="AZ5">
+      <c r="BO5">
         <v>7606.896531103674</v>
       </c>
-      <c r="BA5">
+      <c r="BP5">
         <v>66211979.37052356</v>
       </c>
-      <c r="BB5">
+      <c r="BQ5">
         <v>53677239.25929707</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:69">
       <c r="B6">
         <v>0.183463</v>
       </c>
@@ -1247,112 +1511,157 @@
         <v>17.720835207</v>
       </c>
       <c r="O6">
+        <v>2.3625</v>
+      </c>
+      <c r="P6">
         <v>54599.36268737865</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>114440.2641927457</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>38146.75473091521</v>
       </c>
-      <c r="R6">
+      <c r="S6">
+        <v>1.237440236592764</v>
+      </c>
+      <c r="T6">
         <v>980.7332595115951</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>83260.16734395312</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>121406.9220748683</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.183463</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>113.565</v>
+      </c>
+      <c r="Z6">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA6">
+        <v>505.6651056059167</v>
+      </c>
+      <c r="AB6">
+        <v>3.7935</v>
+      </c>
+      <c r="AC6">
         <v>226667.039314435</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>473734.112167169</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>157911.3707223897</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>157911.3707223897</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>0.183463</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
+        <v>-2.7845253</v>
+      </c>
+      <c r="AJ6">
+        <v>20</v>
+      </c>
+      <c r="AK6">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL6">
         <v>976091.1931068037</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>7925.860488027245</v>
       </c>
-      <c r="AF6">
+      <c r="AO6">
         <v>0.183463</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>170.945325596808</v>
+      </c>
+      <c r="AQ6">
+        <v>1.75</v>
+      </c>
+      <c r="AR6">
+        <v>8472062.280703815</v>
+      </c>
+      <c r="AS6">
+        <v>17706610.16667097</v>
+      </c>
+      <c r="AT6">
+        <v>5902203.388890323</v>
+      </c>
+      <c r="AU6">
+        <v>3.8</v>
+      </c>
+      <c r="AV6">
         <v>5294176.733733144</v>
       </c>
-      <c r="AH6">
-        <v>8472062.280703815</v>
-      </c>
-      <c r="AI6">
-        <v>17706610.16667097</v>
-      </c>
-      <c r="AJ6">
-        <v>5902203.388890323</v>
-      </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>11196380.12262347</v>
       </c>
-      <c r="AM6">
+      <c r="AY6">
         <v>0.183463</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
+        <v>506625</v>
+      </c>
+      <c r="BA6">
+        <v>18231.9525180728</v>
+      </c>
+      <c r="BB6">
+        <v>16785.01488461587</v>
+      </c>
+      <c r="BC6">
+        <v>35080.68110884717</v>
+      </c>
+      <c r="BD6">
+        <v>11693.56036961572</v>
+      </c>
+      <c r="BE6">
+        <v>0.035</v>
+      </c>
+      <c r="BF6">
         <v>6974.204714738186</v>
       </c>
-      <c r="AO6">
-        <v>16785.01488461587</v>
-      </c>
-      <c r="AP6">
-        <v>35080.68110884717</v>
-      </c>
-      <c r="AQ6">
-        <v>11693.56036961572</v>
-      </c>
-      <c r="AR6">
+      <c r="BG6">
         <v>18667.76508435391</v>
       </c>
-      <c r="AT6">
+      <c r="BI6">
         <v>0.183463</v>
       </c>
-      <c r="AU6">
+      <c r="BJ6">
         <v>0.7886100868793783</v>
       </c>
-      <c r="AV6">
+      <c r="BK6">
         <v>121406.9220748683</v>
       </c>
-      <c r="AW6">
+      <c r="BL6">
         <v>157911.3707223897</v>
       </c>
-      <c r="AX6">
+      <c r="BM6">
         <v>11196380.12262347</v>
       </c>
-      <c r="AY6">
+      <c r="BN6">
         <v>18667.76508435391</v>
       </c>
-      <c r="AZ6">
+      <c r="BO6">
         <v>7925.860488027245</v>
       </c>
-      <c r="BA6">
+      <c r="BP6">
         <v>65373635.01790702</v>
       </c>
-      <c r="BB6">
+      <c r="BQ6">
         <v>53871342.97691391</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:69">
       <c r="B7">
         <v>0.203611</v>
       </c>
@@ -1390,112 +1699,157 @@
         <v>18.548145919</v>
       </c>
       <c r="O7">
+        <v>2.3625</v>
+      </c>
+      <c r="P7">
         <v>59457.17603246095</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>124622.2409640382</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>41540.74698801272</v>
       </c>
-      <c r="R7">
+      <c r="S7">
+        <v>1.418968829464666</v>
+      </c>
+      <c r="T7">
         <v>1124.603745792221</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>95474.17216881875</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>137014.9191568315</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.203611</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>113.565</v>
+      </c>
+      <c r="Z7">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA7">
+        <v>528.2511600925104</v>
+      </c>
+      <c r="AB7">
+        <v>3.7935</v>
+      </c>
+      <c r="AC7">
         <v>233197.4140468941</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>487382.5953580087</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>162460.8651193362</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>162460.8651193362</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>0.203611</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>-2.908899</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL7">
         <v>1019689.314920999</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>8279.877237158507</v>
       </c>
-      <c r="AF7">
+      <c r="AO7">
         <v>0.203611</v>
       </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>161.087750878656</v>
+      </c>
+      <c r="AQ7">
+        <v>1.75</v>
+      </c>
+      <c r="AR7">
+        <v>8054964.572949094</v>
+      </c>
+      <c r="AS7">
+        <v>16834875.9574636</v>
+      </c>
+      <c r="AT7">
+        <v>5611625.319154534</v>
+      </c>
+      <c r="AU7">
+        <v>3.8</v>
+      </c>
+      <c r="AV7">
         <v>4988887.644711976</v>
       </c>
-      <c r="AH7">
-        <v>8054964.572949094</v>
-      </c>
-      <c r="AI7">
-        <v>16834875.9574636</v>
-      </c>
-      <c r="AJ7">
-        <v>5611625.319154534</v>
-      </c>
-      <c r="AK7">
+      <c r="AW7">
         <v>10600512.96386651</v>
       </c>
-      <c r="AM7">
+      <c r="AY7">
         <v>0.203611</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
+        <v>506625</v>
+      </c>
+      <c r="BA7">
+        <v>17192.08435921087</v>
+      </c>
+      <c r="BB7">
+        <v>16155.43024761313</v>
+      </c>
+      <c r="BC7">
+        <v>33764.84921751144</v>
+      </c>
+      <c r="BD7">
+        <v>11254.94973917048</v>
+      </c>
+      <c r="BE7">
+        <v>0.035</v>
+      </c>
+      <c r="BF7">
         <v>6576.42760287636</v>
       </c>
-      <c r="AO7">
-        <v>16155.43024761313</v>
-      </c>
-      <c r="AP7">
-        <v>33764.84921751144</v>
-      </c>
-      <c r="AQ7">
-        <v>11254.94973917048</v>
-      </c>
-      <c r="AR7">
+      <c r="BG7">
         <v>17831.37734204684</v>
       </c>
-      <c r="AT7">
+      <c r="BI7">
         <v>0.203611</v>
       </c>
-      <c r="AU7">
+      <c r="BJ7">
         <v>0.7541720471009781</v>
       </c>
-      <c r="AV7">
+      <c r="BK7">
         <v>137014.9191568315</v>
       </c>
-      <c r="AW7">
+      <c r="BL7">
         <v>162460.8651193362</v>
       </c>
-      <c r="AX7">
+      <c r="BM7">
         <v>10600512.96386651</v>
       </c>
-      <c r="AY7">
+      <c r="BN7">
         <v>17831.37734204684</v>
       </c>
-      <c r="AZ7">
+      <c r="BO7">
         <v>8279.877237158507</v>
       </c>
-      <c r="BA7">
+      <c r="BP7">
         <v>64448472.03446919</v>
       </c>
-      <c r="BB7">
+      <c r="BQ7">
         <v>53522372.0317473</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:69">
       <c r="B8">
         <v>0.220616</v>
       </c>
@@ -1533,112 +1887,157 @@
         <v>19.414080563</v>
       </c>
       <c r="O8">
+        <v>2.3625</v>
+      </c>
+      <c r="P8">
         <v>64747.17943966871</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>135710.0881055456</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>45236.69603518187</v>
       </c>
-      <c r="R8">
+      <c r="S8">
+        <v>1.627126178119733</v>
+      </c>
+      <c r="T8">
         <v>1289.578852468795</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>109479.871329382</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>154716.5673645639</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.220616</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>113.565</v>
+      </c>
+      <c r="Z8">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA8">
+        <v>553.2969637706206</v>
+      </c>
+      <c r="AB8">
+        <v>3.7935</v>
+      </c>
+      <c r="AC8">
         <v>240325.7565055944</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>502280.8310966922</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>167426.9436988974</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>167426.9436988974</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>0.220616</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
+        <v>-3.0468177</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL8">
         <v>1068035.519006392</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>8672.448414331899</v>
       </c>
-      <c r="AF8">
+      <c r="AO8">
         <v>0.220616</v>
       </c>
-      <c r="AG8">
+      <c r="AP8">
+        <v>155.948451443568</v>
+      </c>
+      <c r="AQ8">
+        <v>1.75</v>
+      </c>
+      <c r="AR8">
+        <v>7835999.526139268</v>
+      </c>
+      <c r="AS8">
+        <v>16377239.00963107</v>
+      </c>
+      <c r="AT8">
+        <v>5459079.669877023</v>
+      </c>
+      <c r="AU8">
+        <v>3.8</v>
+      </c>
+      <c r="AV8">
         <v>4829723.5412073</v>
       </c>
-      <c r="AH8">
-        <v>7835999.526139268</v>
-      </c>
-      <c r="AI8">
-        <v>16377239.00963107</v>
-      </c>
-      <c r="AJ8">
-        <v>5459079.669877023</v>
-      </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>10288803.21108432</v>
       </c>
-      <c r="AM8">
+      <c r="AY8">
         <v>0.220616</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
+        <v>506625</v>
+      </c>
+      <c r="BA8">
+        <v>16654.6929437345</v>
+      </c>
+      <c r="BB8">
+        <v>15824.10530095989</v>
+      </c>
+      <c r="BC8">
+        <v>33072.38007900617</v>
+      </c>
+      <c r="BD8">
+        <v>11024.12669300205</v>
+      </c>
+      <c r="BE8">
+        <v>0.035</v>
+      </c>
+      <c r="BF8">
         <v>6370.861153547359</v>
       </c>
-      <c r="AO8">
-        <v>15824.10530095989</v>
-      </c>
-      <c r="AP8">
-        <v>33072.38007900617</v>
-      </c>
-      <c r="AQ8">
-        <v>11024.12669300205</v>
-      </c>
-      <c r="AR8">
+      <c r="BG8">
         <v>17394.98784654941</v>
       </c>
-      <c r="AT8">
+      <c r="BI8">
         <v>0.220616</v>
       </c>
-      <c r="AU8">
+      <c r="BJ8">
         <v>0.7190310468242265</v>
       </c>
-      <c r="AV8">
+      <c r="BK8">
         <v>154716.5673645639</v>
       </c>
-      <c r="AW8">
+      <c r="BL8">
         <v>167426.9436988974</v>
       </c>
-      <c r="AX8">
+      <c r="BM8">
         <v>10288803.21108432</v>
       </c>
-      <c r="AY8">
+      <c r="BN8">
         <v>17394.98784654941</v>
       </c>
-      <c r="AZ8">
+      <c r="BO8">
         <v>8672.448414331899</v>
       </c>
-      <c r="BA8">
+      <c r="BP8">
         <v>63419847.71425246</v>
       </c>
-      <c r="BB8">
+      <c r="BQ8">
         <v>52782833.5558438</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:69">
       <c r="B9">
         <v>0.235173</v>
       </c>
@@ -1676,112 +2075,157 @@
         <v>20.320443689</v>
       </c>
       <c r="O9">
+        <v>2.3625</v>
+      </c>
+      <c r="P9">
         <v>70507.9555397049</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>147784.6748112215</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>49261.55827040716</v>
       </c>
-      <c r="R9">
+      <c r="S9">
+        <v>1.865824921409331</v>
+      </c>
+      <c r="T9">
         <v>1478.759541462966</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>125540.5235721163</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>174802.0818425235</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.235173</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>113.565</v>
+      </c>
+      <c r="Z9">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA9">
+        <v>581.0165847352607</v>
+      </c>
+      <c r="AB9">
+        <v>3.7935</v>
+      </c>
+      <c r="AC9">
         <v>248084.6968142457</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>518497.0163417734</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>172832.3387805911</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>172832.3387805911</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>0.235173</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>-3.1994602</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL9">
         <v>1121543.023478987</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>9106.92935064937</v>
       </c>
-      <c r="AF9">
+      <c r="AO9">
         <v>0.235173</v>
       </c>
-      <c r="AG9">
+      <c r="AP9">
+        <v>153.917203549088</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>7749159.215593771</v>
+      </c>
+      <c r="AS9">
+        <v>16195742.76059098</v>
+      </c>
+      <c r="AT9">
+        <v>5398580.920196993</v>
+      </c>
+      <c r="AU9">
+        <v>3.8</v>
+      </c>
+      <c r="AV9">
         <v>4766815.793915255</v>
       </c>
-      <c r="AH9">
-        <v>7749159.215593771</v>
-      </c>
-      <c r="AI9">
-        <v>16195742.76059098</v>
-      </c>
-      <c r="AJ9">
-        <v>5398580.920196993</v>
-      </c>
-      <c r="AK9">
+      <c r="AW9">
         <v>10165396.71411225</v>
       </c>
-      <c r="AM9">
+      <c r="AY9">
         <v>0.235173</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
+        <v>506625</v>
+      </c>
+      <c r="BA9">
+        <v>16448.6017846768</v>
+      </c>
+      <c r="BB9">
+        <v>15695.90986390913</v>
+      </c>
+      <c r="BC9">
+        <v>32804.45161557008</v>
+      </c>
+      <c r="BD9">
+        <v>10934.81720519003</v>
+      </c>
+      <c r="BE9">
+        <v>0.035</v>
+      </c>
+      <c r="BF9">
         <v>6292.025826845993</v>
       </c>
-      <c r="AO9">
-        <v>15695.90986390913</v>
-      </c>
-      <c r="AP9">
-        <v>32804.45161557008</v>
-      </c>
-      <c r="AQ9">
-        <v>10934.81720519003</v>
-      </c>
-      <c r="AR9">
+      <c r="BG9">
         <v>17226.84303203602</v>
       </c>
-      <c r="AT9">
+      <c r="BI9">
         <v>0.235173</v>
       </c>
-      <c r="AU9">
+      <c r="BJ9">
         <v>0.6834374106025463</v>
       </c>
-      <c r="AV9">
+      <c r="BK9">
         <v>174802.0818425235</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
         <v>172832.3387805911</v>
       </c>
-      <c r="AX9">
+      <c r="BM9">
         <v>10165396.71411225</v>
       </c>
-      <c r="AY9">
+      <c r="BN9">
         <v>17226.84303203602</v>
       </c>
-      <c r="AZ9">
+      <c r="BO9">
         <v>9106.92935064937</v>
       </c>
-      <c r="BA9">
+      <c r="BP9">
         <v>62277652.98109299</v>
       </c>
-      <c r="BB9">
+      <c r="BQ9">
         <v>51738288.07397494</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:69">
       <c r="B10">
         <v>0.247703</v>
       </c>
@@ -1819,112 +2263,157 @@
         <v>21.269121872</v>
       </c>
       <c r="O10">
+        <v>2.3625</v>
+      </c>
+      <c r="P10">
         <v>76781.19903883414</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>160933.3931853964</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>53644.46439513212</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>2.139536015622983</v>
+      </c>
+      <c r="T10">
         <v>1695.689269181995</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>143956.9535815964</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>197601.4179767286</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.247703</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>113.565</v>
+      </c>
+      <c r="Z10">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA10">
+        <v>611.6793514490327</v>
+      </c>
+      <c r="AB10">
+        <v>3.7935</v>
+      </c>
+      <c r="AC10">
         <v>256518.0410251085</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>536122.7057424767</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>178707.5685808256</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>178707.5685808256</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>0.247703</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
+        <v>-3.3683096</v>
+      </c>
+      <c r="AJ10">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL10">
         <v>1180731.716180529</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>9587.541535385892</v>
       </c>
-      <c r="AF10">
+      <c r="AO10">
         <v>0.247703</v>
       </c>
-      <c r="AG10">
+      <c r="AP10">
+        <v>154.214162232536</v>
+      </c>
+      <c r="AQ10">
+        <v>1.75</v>
+      </c>
+      <c r="AR10">
+        <v>7761865.529313372</v>
+      </c>
+      <c r="AS10">
+        <v>16222298.95626495</v>
+      </c>
+      <c r="AT10">
+        <v>5407432.985421648</v>
+      </c>
+      <c r="AU10">
+        <v>3.8</v>
+      </c>
+      <c r="AV10">
         <v>4776012.604341639</v>
       </c>
-      <c r="AH10">
-        <v>7761865.529313372</v>
-      </c>
-      <c r="AI10">
-        <v>16222298.95626495</v>
-      </c>
-      <c r="AJ10">
-        <v>5407432.985421648</v>
-      </c>
-      <c r="AK10">
+      <c r="AW10">
         <v>10183445.58976329</v>
       </c>
-      <c r="AM10">
+      <c r="AY10">
         <v>0.247703</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
+        <v>506625</v>
+      </c>
+      <c r="BA10">
+        <v>16490.97117374048</v>
+      </c>
+      <c r="BB10">
+        <v>15722.31723727596</v>
+      </c>
+      <c r="BC10">
+        <v>32859.64302590676</v>
+      </c>
+      <c r="BD10">
+        <v>10953.21434196892</v>
+      </c>
+      <c r="BE10">
+        <v>0.035</v>
+      </c>
+      <c r="BF10">
         <v>6308.23324032382</v>
       </c>
-      <c r="AO10">
-        <v>15722.31723727596</v>
-      </c>
-      <c r="AP10">
-        <v>32859.64302590676</v>
-      </c>
-      <c r="AQ10">
-        <v>10953.21434196892</v>
-      </c>
-      <c r="AR10">
+      <c r="BG10">
         <v>17261.44758229274</v>
       </c>
-      <c r="AT10">
+      <c r="BI10">
         <v>0.247703</v>
       </c>
-      <c r="AU10">
+      <c r="BJ10">
         <v>0.6476094610352326</v>
       </c>
-      <c r="AV10">
+      <c r="BK10">
         <v>197601.4179767286</v>
       </c>
-      <c r="AW10">
+      <c r="BL10">
         <v>178707.5685808256</v>
       </c>
-      <c r="AX10">
+      <c r="BM10">
         <v>10183445.58976329</v>
       </c>
-      <c r="AY10">
+      <c r="BN10">
         <v>17261.44758229274</v>
       </c>
-      <c r="AZ10">
+      <c r="BO10">
         <v>9587.541535385892</v>
       </c>
-      <c r="BA10">
+      <c r="BP10">
         <v>61016222.04767921</v>
       </c>
-      <c r="BB10">
+      <c r="BQ10">
         <v>50429618.48224068</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:69">
       <c r="B11">
         <v>0.258633</v>
       </c>
@@ -1962,112 +2451,157 @@
         <v>22.262086993</v>
       </c>
       <c r="O11">
+        <v>2.3625</v>
+      </c>
+      <c r="P11">
         <v>83612.5956621197</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>175252.0005078029</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>58417.33350260096</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>2.453400405215953</v>
+      </c>
+      <c r="T11">
         <v>1944.442491153904</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>165075.0656552533</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>223492.3991578543</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.258633</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>113.565</v>
+      </c>
+      <c r="Z11">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA11">
+        <v>645.5529761495244</v>
+      </c>
+      <c r="AB11">
+        <v>3.7935</v>
+      </c>
+      <c r="AC11">
         <v>265664.2759623481</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>555238.3367613074</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>185079.4455871025</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>185079.4455871025</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>0.258633</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
+        <v>-3.5548401</v>
+      </c>
+      <c r="AJ11">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL11">
         <v>1246118.365134951</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>10118.4811248958</v>
       </c>
-      <c r="AF11">
+      <c r="AO11">
         <v>0.258633</v>
       </c>
-      <c r="AG11">
+      <c r="AP11">
+        <v>156.34023354208</v>
+      </c>
+      <c r="AQ11">
+        <v>1.75</v>
+      </c>
+      <c r="AR11">
+        <v>7852729.493356529</v>
+      </c>
+      <c r="AS11">
+        <v>16412204.64111514</v>
+      </c>
+      <c r="AT11">
+        <v>5470734.880371714</v>
+      </c>
+      <c r="AU11">
+        <v>3.8</v>
+      </c>
+      <c r="AV11">
         <v>4841857.032798218</v>
       </c>
-      <c r="AH11">
-        <v>7852729.493356529</v>
-      </c>
-      <c r="AI11">
-        <v>16412204.64111514</v>
-      </c>
-      <c r="AJ11">
-        <v>5470734.880371714</v>
-      </c>
-      <c r="AK11">
+      <c r="AW11">
         <v>10312591.91316993</v>
       </c>
-      <c r="AM11">
+      <c r="AY11">
         <v>0.258633</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
+        <v>506625</v>
+      </c>
+      <c r="BA11">
+        <v>16728.80148317797</v>
+      </c>
+      <c r="BB11">
+        <v>15870.04793158516</v>
+      </c>
+      <c r="BC11">
+        <v>33168.40017701299</v>
+      </c>
+      <c r="BD11">
+        <v>11056.13339233766</v>
+      </c>
+      <c r="BE11">
+        <v>0.035</v>
+      </c>
+      <c r="BF11">
         <v>6399.209632662622</v>
       </c>
-      <c r="AO11">
-        <v>15870.04793158516</v>
-      </c>
-      <c r="AP11">
-        <v>33168.40017701299</v>
-      </c>
-      <c r="AQ11">
-        <v>11056.13339233766</v>
-      </c>
-      <c r="AR11">
+      <c r="BG11">
         <v>17455.34302500029</v>
       </c>
-      <c r="AT11">
+      <c r="BI11">
         <v>0.258633</v>
       </c>
-      <c r="AU11">
+      <c r="BJ11">
         <v>0.6117941735990414</v>
       </c>
-      <c r="AV11">
+      <c r="BK11">
         <v>223492.3991578543</v>
       </c>
-      <c r="AW11">
+      <c r="BL11">
         <v>185079.4455871025</v>
       </c>
-      <c r="AX11">
+      <c r="BM11">
         <v>10312591.91316993</v>
       </c>
-      <c r="AY11">
+      <c r="BN11">
         <v>17455.34302500029</v>
       </c>
-      <c r="AZ11">
+      <c r="BO11">
         <v>10118.4811248958</v>
       </c>
-      <c r="BA11">
+      <c r="BP11">
         <v>59620253.21802906</v>
       </c>
-      <c r="BB11">
+      <c r="BQ11">
         <v>48871515.63596427</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:69">
       <c r="B12">
         <v>0.268319</v>
       </c>
@@ -2105,112 +2639,157 @@
         <v>23.301412644</v>
       </c>
       <c r="O12">
+        <v>2.3625</v>
+      </c>
+      <c r="P12">
         <v>91051.82162992797</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>190844.6181363291</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>63614.87271210968</v>
       </c>
-      <c r="R12">
+      <c r="S12">
+        <v>2.81330911655729</v>
+      </c>
+      <c r="T12">
         <v>2229.688140327481</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>189291.2327465517</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>252906.1054586614</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.268319</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>113.565</v>
+      </c>
+      <c r="Z12">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA12">
+        <v>682.9490633873249</v>
+      </c>
+      <c r="AB12">
+        <v>3.7935</v>
+      </c>
+      <c r="AC12">
         <v>275568.6670148979</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>575938.5140611366</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>191979.5046870455</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>191979.5046870455</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>0.268319</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>-3.7607676</v>
+      </c>
+      <c r="AJ12">
+        <v>20</v>
+      </c>
+      <c r="AK12">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL12">
         <v>1318304.464204872</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>10704.63224934356</v>
       </c>
-      <c r="AF12">
+      <c r="AO12">
         <v>0.268319</v>
       </c>
-      <c r="AG12">
+      <c r="AP12">
+        <v>159.99634326648</v>
+      </c>
+      <c r="AQ12">
+        <v>1.75</v>
+      </c>
+      <c r="AR12">
+        <v>8008552.793105938</v>
+      </c>
+      <c r="AS12">
+        <v>16737875.33759141</v>
+      </c>
+      <c r="AT12">
+        <v>5579291.779197136</v>
+      </c>
+      <c r="AU12">
+        <v>3.8</v>
+      </c>
+      <c r="AV12">
         <v>4955086.750962886</v>
       </c>
-      <c r="AH12">
-        <v>8008552.793105938</v>
-      </c>
-      <c r="AI12">
-        <v>16737875.33759141</v>
-      </c>
-      <c r="AJ12">
-        <v>5579291.779197136</v>
-      </c>
-      <c r="AK12">
+      <c r="AW12">
         <v>10534378.53016002</v>
       </c>
-      <c r="AM12">
+      <c r="AY12">
         <v>0.268319</v>
       </c>
-      <c r="AN12">
+      <c r="AZ12">
+        <v>506625</v>
+      </c>
+      <c r="BA12">
+        <v>17130.35637685251</v>
+      </c>
+      <c r="BB12">
+        <v>16117.58502447595</v>
+      </c>
+      <c r="BC12">
+        <v>33685.75270115474</v>
+      </c>
+      <c r="BD12">
+        <v>11228.58423371825</v>
+      </c>
+      <c r="BE12">
+        <v>0.035</v>
+      </c>
+      <c r="BF12">
         <v>6552.815014747454</v>
       </c>
-      <c r="AO12">
-        <v>16117.58502447595</v>
-      </c>
-      <c r="AP12">
-        <v>33685.75270115474</v>
-      </c>
-      <c r="AQ12">
-        <v>11228.58423371825</v>
-      </c>
-      <c r="AR12">
+      <c r="BG12">
         <v>17781.3992484657</v>
       </c>
-      <c r="AT12">
+      <c r="BI12">
         <v>0.268319</v>
       </c>
-      <c r="AU12">
+      <c r="BJ12">
         <v>0.5762124200005233</v>
       </c>
-      <c r="AV12">
+      <c r="BK12">
         <v>252906.1054586614</v>
       </c>
-      <c r="AW12">
+      <c r="BL12">
         <v>191979.5046870455</v>
       </c>
-      <c r="AX12">
+      <c r="BM12">
         <v>10534378.53016002</v>
       </c>
-      <c r="AY12">
+      <c r="BN12">
         <v>17781.3992484657</v>
       </c>
-      <c r="AZ12">
+      <c r="BO12">
         <v>10704.63224934356</v>
       </c>
-      <c r="BA12">
+      <c r="BP12">
         <v>58082375.23528968</v>
       </c>
-      <c r="BB12">
+      <c r="BQ12">
         <v>47074625.06348614</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:69">
       <c r="B13">
         <v>0.277029</v>
       </c>
@@ -2248,112 +2827,157 @@
         <v>24.389257723</v>
       </c>
       <c r="O13">
+        <v>2.3625</v>
+      </c>
+      <c r="P13">
         <v>99152.94573668826</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>207824.5742640986</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>69274.85808803287</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>3.226016530882033</v>
+      </c>
+      <c r="T13">
         <v>2556.779401550556</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>217059.9179441358</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>286334.7760321687</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.277029</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>113.565</v>
+      </c>
+      <c r="Z13">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA13">
+        <v>724.1540845060749</v>
+      </c>
+      <c r="AB13">
+        <v>3.7935</v>
+      </c>
+      <c r="AC13">
         <v>286264.5510967819</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>598292.911792274</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>199430.9705974247</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>199430.9705974247</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>0.277029</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>-3.9876696</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL13">
         <v>1397842.992333282</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>11350.48509774625</v>
       </c>
-      <c r="AF13">
+      <c r="AO13">
         <v>0.277029</v>
       </c>
-      <c r="AG13">
+      <c r="AP13">
+        <v>165.015740045744</v>
+      </c>
+      <c r="AQ13">
+        <v>1.75</v>
+      </c>
+      <c r="AR13">
+        <v>8221613.566574287</v>
+      </c>
+      <c r="AS13">
+        <v>17183172.35414026</v>
+      </c>
+      <c r="AT13">
+        <v>5727724.118046753</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
         <v>5110537.469216691</v>
       </c>
-      <c r="AH13">
-        <v>8221613.566574287</v>
-      </c>
-      <c r="AI13">
-        <v>17183172.35414026</v>
-      </c>
-      <c r="AJ13">
-        <v>5727724.118046753</v>
-      </c>
-      <c r="AK13">
+      <c r="AW13">
         <v>10838261.58726344</v>
       </c>
-      <c r="AM13">
+      <c r="AY13">
         <v>0.277029</v>
       </c>
-      <c r="AN13">
+      <c r="AZ13">
+        <v>506625</v>
+      </c>
+      <c r="BA13">
+        <v>17678.02287619683</v>
+      </c>
+      <c r="BB13">
+        <v>16451.48225212003</v>
+      </c>
+      <c r="BC13">
+        <v>34383.59790693086</v>
+      </c>
+      <c r="BD13">
+        <v>11461.19930231029</v>
+      </c>
+      <c r="BE13">
+        <v>0.035</v>
+      </c>
+      <c r="BF13">
         <v>6762.311955793411</v>
       </c>
-      <c r="AO13">
-        <v>16451.48225212003</v>
-      </c>
-      <c r="AP13">
-        <v>34383.59790693086</v>
-      </c>
-      <c r="AQ13">
-        <v>11461.19930231029</v>
-      </c>
-      <c r="AR13">
+      <c r="BG13">
         <v>18223.5112581037</v>
       </c>
-      <c r="AT13">
+      <c r="BI13">
         <v>0.277029</v>
       </c>
-      <c r="AU13">
+      <c r="BJ13">
         <v>0.5411140689223793</v>
       </c>
-      <c r="AV13">
+      <c r="BK13">
         <v>286334.7760321687</v>
       </c>
-      <c r="AW13">
+      <c r="BL13">
         <v>199430.9705974247</v>
       </c>
-      <c r="AX13">
+      <c r="BM13">
         <v>10838261.58726344</v>
       </c>
-      <c r="AY13">
+      <c r="BN13">
         <v>18223.5112581037</v>
       </c>
-      <c r="AZ13">
+      <c r="BO13">
         <v>11350.48509774625</v>
       </c>
-      <c r="BA13">
+      <c r="BP13">
         <v>56380160.20688435</v>
       </c>
-      <c r="BB13">
+      <c r="BQ13">
         <v>45026558.87663546</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:69">
       <c r="B14">
         <v>0.284946</v>
       </c>
@@ -2391,112 +3015,157 @@
         <v>25.527892682</v>
       </c>
       <c r="O14">
+        <v>2.3625</v>
+      </c>
+      <c r="P14">
         <v>107974.8704218142</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>226315.3284041226</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>75438.44280137419</v>
       </c>
-      <c r="R14">
+      <c r="S14">
+        <v>3.699268575468492</v>
+      </c>
+      <c r="T14">
         <v>2931.855309487553</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>248902.2997117038</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>324340.7425130779</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.284946</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>113.565</v>
+      </c>
+      <c r="Z14">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA14">
+        <v>769.5984093550898</v>
+      </c>
+      <c r="AB14">
+        <v>3.7935</v>
+      </c>
+      <c r="AC14">
         <v>297816.7612840209</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>622437.0310836036</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>207479.0103612012</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>207479.0103612012</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>0.284946</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
+        <v>-4.237916</v>
+      </c>
+      <c r="AJ14">
+        <v>20</v>
+      </c>
+      <c r="AK14">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL14">
         <v>1485564.697410511</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>12062.78534297335</v>
       </c>
-      <c r="AF14">
+      <c r="AO14">
         <v>0.284946</v>
       </c>
-      <c r="AG14">
+      <c r="AP14">
+        <v>171.335435745936</v>
+      </c>
+      <c r="AQ14">
+        <v>1.75</v>
+      </c>
+      <c r="AR14">
+        <v>8488493.273733765</v>
+      </c>
+      <c r="AS14">
+        <v>17740950.94210357</v>
+      </c>
+      <c r="AT14">
+        <v>5913650.314034523</v>
+      </c>
+      <c r="AU14">
+        <v>3.8</v>
+      </c>
+      <c r="AV14">
         <v>5306258.445051637</v>
       </c>
-      <c r="AH14">
-        <v>8488493.273733765</v>
-      </c>
-      <c r="AI14">
-        <v>17740950.94210357</v>
-      </c>
-      <c r="AJ14">
-        <v>5913650.314034523</v>
-      </c>
-      <c r="AK14">
+      <c r="AW14">
         <v>11219908.75908616</v>
       </c>
-      <c r="AM14">
+      <c r="AY14">
         <v>0.284946</v>
       </c>
-      <c r="AN14">
+      <c r="AZ14">
+        <v>506625</v>
+      </c>
+      <c r="BA14">
+        <v>18365.16670084875</v>
+      </c>
+      <c r="BB14">
+        <v>16864.61842149823</v>
+      </c>
+      <c r="BC14">
+        <v>35247.05250093131</v>
+      </c>
+      <c r="BD14">
+        <v>11749.01750031043</v>
+      </c>
+      <c r="BE14">
+        <v>0.035</v>
+      </c>
+      <c r="BF14">
         <v>7025.162667851826</v>
       </c>
-      <c r="AO14">
-        <v>16864.61842149823</v>
-      </c>
-      <c r="AP14">
-        <v>35247.05250093131</v>
-      </c>
-      <c r="AQ14">
-        <v>11749.01750031043</v>
-      </c>
-      <c r="AR14">
+      <c r="BG14">
         <v>18774.18016816226</v>
       </c>
-      <c r="AT14">
+      <c r="BI14">
         <v>0.284946</v>
       </c>
-      <c r="AU14">
+      <c r="BJ14">
         <v>0.5066601482655697</v>
       </c>
-      <c r="AV14">
+      <c r="BK14">
         <v>324340.7425130779</v>
       </c>
-      <c r="AW14">
+      <c r="BL14">
         <v>207479.0103612012</v>
       </c>
-      <c r="AX14">
+      <c r="BM14">
         <v>11219908.75908616</v>
       </c>
-      <c r="AY14">
+      <c r="BN14">
         <v>18774.18016816226</v>
       </c>
-      <c r="AZ14">
+      <c r="BO14">
         <v>12062.78534297335</v>
       </c>
-      <c r="BA14">
+      <c r="BP14">
         <v>54501197.99333456</v>
       </c>
-      <c r="BB14">
+      <c r="BQ14">
         <v>42718632.51586299</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:69">
       <c r="B15">
         <v>0.292393</v>
       </c>
@@ -2534,112 +3203,157 @@
         <v>26.719683122</v>
       </c>
       <c r="O15">
+        <v>2.3625</v>
+      </c>
+      <c r="P15">
         <v>117581.6678321377</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>246451.1757761607</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>82150.39192538688</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>4.241943571862165</v>
+      </c>
+      <c r="T15">
         <v>3361.952377879359</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>285415.7487470497</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>367566.1406724366</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.292393</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>113.565</v>
+      </c>
+      <c r="Z15">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA15">
+        <v>819.5755552926749</v>
+      </c>
+      <c r="AB15">
+        <v>3.7935</v>
+      </c>
+      <c r="AC15">
         <v>310248.9206847019</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>648420.244231027</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>216140.0814103423</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>216140.0814103423</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>0.292393</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
+        <v>-4.5131231</v>
+      </c>
+      <c r="AJ15">
+        <v>20</v>
+      </c>
+      <c r="AK15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL15">
         <v>1582036.159383029</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>12846.1336141902</v>
       </c>
-      <c r="AF15">
+      <c r="AO15">
         <v>0.292393</v>
       </c>
-      <c r="AG15">
+      <c r="AP15">
+        <v>178.817272753672</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
+        <v>8802550.825136466</v>
+      </c>
+      <c r="AS15">
+        <v>18397331.22453521</v>
+      </c>
+      <c r="AT15">
+        <v>6132443.741511737</v>
+      </c>
+      <c r="AU15">
+        <v>3.8</v>
+      </c>
+      <c r="AV15">
         <v>5537970.937181221</v>
       </c>
-      <c r="AH15">
-        <v>8802550.825136466</v>
-      </c>
-      <c r="AI15">
-        <v>18397331.22453521</v>
-      </c>
-      <c r="AJ15">
-        <v>6132443.741511737</v>
-      </c>
-      <c r="AK15">
+      <c r="AW15">
         <v>11670414.67869296</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>0.292393</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
+        <v>506625</v>
+      </c>
+      <c r="BA15">
+        <v>19177.17546551269</v>
+      </c>
+      <c r="BB15">
+        <v>17344.93907359817</v>
+      </c>
+      <c r="BC15">
+        <v>36250.92266382017</v>
+      </c>
+      <c r="BD15">
+        <v>12083.64088794006</v>
+      </c>
+      <c r="BE15">
+        <v>0.035</v>
+      </c>
+      <c r="BF15">
         <v>7335.777526535461</v>
       </c>
-      <c r="AO15">
-        <v>17344.93907359817</v>
-      </c>
-      <c r="AP15">
-        <v>36250.92266382017</v>
-      </c>
-      <c r="AQ15">
-        <v>12083.64088794006</v>
-      </c>
-      <c r="AR15">
+      <c r="BG15">
         <v>19419.41841447552</v>
       </c>
-      <c r="AT15">
+      <c r="BI15">
         <v>0.292393</v>
       </c>
-      <c r="AU15">
+      <c r="BJ15">
         <v>0.4730902478507952</v>
       </c>
-      <c r="AV15">
+      <c r="BK15">
         <v>367566.1406724366</v>
       </c>
-      <c r="AW15">
+      <c r="BL15">
         <v>216140.0814103423</v>
       </c>
-      <c r="AX15">
+      <c r="BM15">
         <v>11670414.67869296</v>
       </c>
-      <c r="AY15">
+      <c r="BN15">
         <v>19419.41841447552</v>
       </c>
-      <c r="AZ15">
+      <c r="BO15">
         <v>12846.1336141902</v>
       </c>
-      <c r="BA15">
+      <c r="BP15">
         <v>52434090.95375534</v>
       </c>
-      <c r="BB15">
+      <c r="BQ15">
         <v>40147704.50095094</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:69">
       <c r="B16">
         <v>0.299457</v>
       </c>
@@ -2677,112 +3391,157 @@
         <v>27.967116041</v>
       </c>
       <c r="O16">
+        <v>2.3625</v>
+      </c>
+      <c r="P16">
         <v>128043.2459701424</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>268378.6435534184</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>89459.54785113946</v>
       </c>
-      <c r="R16">
+      <c r="S16">
+        <v>4.864230443160735</v>
+      </c>
+      <c r="T16">
         <v>3855.145837727041</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>327285.8185153686</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>416745.366366508</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.299457</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>113.565</v>
+      </c>
+      <c r="Z16">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA16">
+        <v>874.5211948389757</v>
+      </c>
+      <c r="AB16">
+        <v>3.7935</v>
+      </c>
+      <c r="AC16">
         <v>323614.6338449943</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>676354.584736038</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>225451.528245346</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>225451.528245346</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>0.299457</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
+        <v>-4.81569</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL16">
         <v>1688098.361947907</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>13707.358699017</v>
       </c>
-      <c r="AF16">
+      <c r="AO16">
         <v>0.299457</v>
       </c>
-      <c r="AG16">
+      <c r="AP16">
+        <v>187.492199193264</v>
+      </c>
+      <c r="AQ16">
+        <v>1.75</v>
+      </c>
+      <c r="AR16">
+        <v>9164234.99567974</v>
+      </c>
+      <c r="AS16">
+        <v>19153251.14097065</v>
+      </c>
+      <c r="AT16">
+        <v>6384417.046990218</v>
+      </c>
+      <c r="AU16">
+        <v>3.8</v>
+      </c>
+      <c r="AV16">
         <v>5806633.409015386</v>
       </c>
-      <c r="AH16">
-        <v>9164234.99567974</v>
-      </c>
-      <c r="AI16">
-        <v>19153251.14097065</v>
-      </c>
-      <c r="AJ16">
-        <v>6384417.046990218</v>
-      </c>
-      <c r="AK16">
+      <c r="AW16">
         <v>12191050.4560056</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>0.299457</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
+        <v>506625</v>
+      </c>
+      <c r="BA16">
+        <v>20117.45585086149</v>
+      </c>
+      <c r="BB16">
+        <v>17891.08340025665</v>
+      </c>
+      <c r="BC16">
+        <v>37392.36430653639</v>
+      </c>
+      <c r="BD16">
+        <v>12464.12143551213</v>
+      </c>
+      <c r="BE16">
+        <v>0.035</v>
+      </c>
+      <c r="BF16">
         <v>7695.45967742824</v>
       </c>
-      <c r="AO16">
-        <v>17891.08340025665</v>
-      </c>
-      <c r="AP16">
-        <v>37392.36430653639</v>
-      </c>
-      <c r="AQ16">
-        <v>12464.12143551213</v>
-      </c>
-      <c r="AR16">
+      <c r="BG16">
         <v>20159.58111294037</v>
       </c>
-      <c r="AT16">
+      <c r="BI16">
         <v>0.299457</v>
       </c>
-      <c r="AU16">
+      <c r="BJ16">
         <v>0.4405562444646799</v>
       </c>
-      <c r="AV16">
+      <c r="BK16">
         <v>416745.366366508</v>
       </c>
-      <c r="AW16">
+      <c r="BL16">
         <v>225451.528245346</v>
       </c>
-      <c r="AX16">
+      <c r="BM16">
         <v>12191050.4560056</v>
       </c>
-      <c r="AY16">
+      <c r="BN16">
         <v>20159.58111294037</v>
       </c>
-      <c r="AZ16">
+      <c r="BO16">
         <v>13707.358699017</v>
       </c>
-      <c r="BA16">
+      <c r="BP16">
         <v>50161671.46935104</v>
       </c>
-      <c r="BB16">
+      <c r="BQ16">
         <v>37294557.17892163</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:69">
       <c r="B17">
         <v>0.306271</v>
       </c>
@@ -2820,112 +3579,157 @@
         <v>29.272783429</v>
       </c>
       <c r="O17">
+        <v>2.3625</v>
+      </c>
+      <c r="P17">
         <v>139435.6083278745</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>292257.0350552249</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>97419.01168507496</v>
       </c>
-      <c r="R17">
+      <c r="S17">
+        <v>5.577805248338927</v>
+      </c>
+      <c r="T17">
         <v>4420.689549571017</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>375298.1232187895</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>472717.1349038644</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.306271</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>113.565</v>
+      </c>
+      <c r="Z17">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA17">
+        <v>934.8224411244132</v>
+      </c>
+      <c r="AB17">
+        <v>3.7935</v>
+      </c>
+      <c r="AC17">
         <v>337949.1555825338</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>706313.7351674956</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>235437.9117224985</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>235437.9117224985</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.306271</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>-5.1477484</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL17">
         <v>1804498.554051436</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>14652.52825889766</v>
       </c>
-      <c r="AF17">
+      <c r="AO17">
         <v>0.306271</v>
       </c>
-      <c r="AG17">
+      <c r="AP17">
+        <v>197.363115385072</v>
+      </c>
+      <c r="AQ17">
+        <v>1.75</v>
+      </c>
+      <c r="AR17">
+        <v>9572747.14426177</v>
+      </c>
+      <c r="AS17">
+        <v>20007041.5315071</v>
+      </c>
+      <c r="AT17">
+        <v>6669013.843835698</v>
+      </c>
+      <c r="AU17">
+        <v>3.8</v>
+      </c>
+      <c r="AV17">
         <v>6112335.68347568</v>
       </c>
-      <c r="AH17">
-        <v>9572747.14426177</v>
-      </c>
-      <c r="AI17">
-        <v>20007041.5315071</v>
-      </c>
-      <c r="AJ17">
-        <v>6669013.843835698</v>
-      </c>
-      <c r="AK17">
+      <c r="AW17">
         <v>12781349.52731138</v>
       </c>
-      <c r="AM17">
+      <c r="AY17">
         <v>0.306271</v>
       </c>
-      <c r="AN17">
+      <c r="AZ17">
+        <v>506625</v>
+      </c>
+      <c r="BA17">
+        <v>21186.40536078815</v>
+      </c>
+      <c r="BB17">
+        <v>18499.70618914901</v>
+      </c>
+      <c r="BC17">
+        <v>38664.38593532144</v>
+      </c>
+      <c r="BD17">
+        <v>12888.12864510714</v>
+      </c>
+      <c r="BE17">
+        <v>0.035</v>
+      </c>
+      <c r="BF17">
         <v>8104.361176297197</v>
       </c>
-      <c r="AO17">
-        <v>18499.70618914901</v>
-      </c>
-      <c r="AP17">
-        <v>38664.38593532144</v>
-      </c>
-      <c r="AQ17">
-        <v>12888.12864510714</v>
-      </c>
-      <c r="AR17">
+      <c r="BG17">
         <v>20992.48982140434</v>
       </c>
-      <c r="AT17">
+      <c r="BI17">
         <v>0.306271</v>
       </c>
-      <c r="AU17">
+      <c r="BJ17">
         <v>0.4092144710547234</v>
       </c>
-      <c r="AV17">
+      <c r="BK17">
         <v>472717.1349038644</v>
       </c>
-      <c r="AW17">
+      <c r="BL17">
         <v>235437.9117224985</v>
       </c>
-      <c r="AX17">
+      <c r="BM17">
         <v>12781349.52731138</v>
       </c>
-      <c r="AY17">
+      <c r="BN17">
         <v>20992.48982140434</v>
       </c>
-      <c r="AZ17">
+      <c r="BO17">
         <v>14652.52825889766</v>
       </c>
-      <c r="BA17">
+      <c r="BP17">
         <v>47661259.23885626</v>
       </c>
-      <c r="BB17">
+      <c r="BQ17">
         <v>34136109.64683822</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:69">
       <c r="B18">
         <v>0.312919</v>
       </c>
@@ -2963,112 +3767,157 @@
         <v>30.639408516</v>
       </c>
       <c r="O18">
+        <v>2.3625</v>
+      </c>
+      <c r="P18">
         <v>151841.6092568106</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>318260.013002275</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>106086.6710007583</v>
       </c>
-      <c r="R18">
+      <c r="S18">
+        <v>6.396062422968653</v>
+      </c>
+      <c r="T18">
         <v>5069.199273323806</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>430353.8966415523</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>536440.5676423106</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.312919</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
+        <v>113.565</v>
+      </c>
+      <c r="Z18">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA18">
+        <v>1001.103538360566</v>
+      </c>
+      <c r="AB18">
+        <v>3.7935</v>
+      </c>
+      <c r="AC18">
         <v>353336.7248459566</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>738473.7549280493</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>246157.9183093497</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>246157.9183093497</v>
       </c>
-      <c r="AB18">
+      <c r="AH18">
         <v>0.312919</v>
       </c>
-      <c r="AC18">
+      <c r="AI18">
+        <v>-5.5127358</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AK18">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL18">
         <v>1932441.721504412</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>15691.42677861582</v>
       </c>
-      <c r="AF18">
+      <c r="AO18">
         <v>0.312919</v>
       </c>
-      <c r="AG18">
+      <c r="AP18">
+        <v>208.496216876136</v>
+      </c>
+      <c r="AQ18">
+        <v>1.75</v>
+      </c>
+      <c r="AR18">
+        <v>10029838.65411192</v>
+      </c>
+      <c r="AS18">
+        <v>20962362.7870939</v>
+      </c>
+      <c r="AT18">
+        <v>6987454.262364634</v>
+      </c>
+      <c r="AU18">
+        <v>3.8</v>
+      </c>
+      <c r="AV18">
         <v>6457127.836653932</v>
       </c>
-      <c r="AH18">
-        <v>10029838.65411192</v>
-      </c>
-      <c r="AI18">
-        <v>20962362.7870939</v>
-      </c>
-      <c r="AJ18">
-        <v>6987454.262364634</v>
-      </c>
-      <c r="AK18">
+      <c r="AW18">
         <v>13444582.09901857</v>
       </c>
-      <c r="AM18">
+      <c r="AY18">
         <v>0.312919</v>
       </c>
-      <c r="AN18">
+      <c r="AZ18">
+        <v>506625</v>
+      </c>
+      <c r="BA18">
+        <v>22391.24713553906</v>
+      </c>
+      <c r="BB18">
+        <v>19171.15916213016</v>
+      </c>
+      <c r="BC18">
+        <v>40067.72264885202</v>
+      </c>
+      <c r="BD18">
+        <v>13355.90754961734</v>
+      </c>
+      <c r="BE18">
+        <v>0.035</v>
+      </c>
+      <c r="BF18">
         <v>8565.245065592755</v>
       </c>
-      <c r="AO18">
-        <v>19171.15916213016</v>
-      </c>
-      <c r="AP18">
-        <v>40067.72264885202</v>
-      </c>
-      <c r="AQ18">
-        <v>13355.90754961734</v>
-      </c>
-      <c r="AR18">
+      <c r="BG18">
         <v>21921.1526152101</v>
       </c>
-      <c r="AT18">
+      <c r="BI18">
         <v>0.312919</v>
       </c>
-      <c r="AU18">
+      <c r="BJ18">
         <v>0.3791457785750613</v>
       </c>
-      <c r="AV18">
+      <c r="BK18">
         <v>536440.5676423106</v>
       </c>
-      <c r="AW18">
+      <c r="BL18">
         <v>246157.9183093497</v>
       </c>
-      <c r="AX18">
+      <c r="BM18">
         <v>13444582.09901857</v>
       </c>
-      <c r="AY18">
+      <c r="BN18">
         <v>21921.1526152101</v>
       </c>
-      <c r="AZ18">
+      <c r="BO18">
         <v>15691.42677861582</v>
       </c>
-      <c r="BA18">
+      <c r="BP18">
         <v>44917049.21214715</v>
       </c>
-      <c r="BB18">
+      <c r="BQ18">
         <v>30652256.04778309</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:69">
       <c r="B19">
         <v>0.319533</v>
       </c>
@@ -3106,112 +3955,157 @@
         <v>32.069835929</v>
       </c>
       <c r="O19">
+        <v>2.3625</v>
+      </c>
+      <c r="P19">
         <v>165351.298269454</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>346576.3211727756</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>115525.4403909252</v>
       </c>
-      <c r="R19">
+      <c r="S19">
+        <v>7.334347674786737</v>
+      </c>
+      <c r="T19">
         <v>5812.837249652229</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>493485.6623402673</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>609011.1027311925</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.319533</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>113.565</v>
+      </c>
+      <c r="Z19">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA19">
+        <v>1073.623936061642</v>
+      </c>
+      <c r="AB19">
+        <v>3.7935</v>
+      </c>
+      <c r="AC19">
         <v>369769.7264529169</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>772818.7282865961</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>257606.2427621987</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>257606.2427621987</v>
       </c>
-      <c r="AB19">
+      <c r="AH19">
         <v>0.319533</v>
       </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>-5.9120809</v>
+      </c>
+      <c r="AJ19">
+        <v>20</v>
+      </c>
+      <c r="AK19">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL19">
         <v>2072428.682700404</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>16828.12090352728</v>
       </c>
-      <c r="AF19">
+      <c r="AO19">
         <v>0.319533</v>
       </c>
-      <c r="AG19">
+      <c r="AP19">
+        <v>220.877855100056</v>
+      </c>
+      <c r="AQ19">
+        <v>1.75</v>
+      </c>
+      <c r="AR19">
+        <v>10533915.84093369</v>
+      </c>
+      <c r="AS19">
+        <v>22015884.1075514</v>
+      </c>
+      <c r="AT19">
+        <v>7338628.035850467</v>
+      </c>
+      <c r="AU19">
+        <v>3.8</v>
+      </c>
+      <c r="AV19">
         <v>6840587.172448735</v>
       </c>
-      <c r="AH19">
-        <v>10533915.84093369</v>
-      </c>
-      <c r="AI19">
-        <v>22015884.1075514</v>
-      </c>
-      <c r="AJ19">
-        <v>7338628.035850467</v>
-      </c>
-      <c r="AK19">
+      <c r="AW19">
         <v>14179215.2082992</v>
       </c>
-      <c r="AM19">
+      <c r="AY19">
         <v>0.319533</v>
       </c>
-      <c r="AN19">
+      <c r="AZ19">
+        <v>506625</v>
+      </c>
+      <c r="BA19">
+        <v>23730.51718004061</v>
+      </c>
+      <c r="BB19">
+        <v>19900.78482569664</v>
+      </c>
+      <c r="BC19">
+        <v>41592.64028570598</v>
+      </c>
+      <c r="BD19">
+        <v>13864.21342856866</v>
+      </c>
+      <c r="BE19">
+        <v>0.035</v>
+      </c>
+      <c r="BF19">
         <v>9077.551328425081</v>
       </c>
-      <c r="AO19">
-        <v>19900.78482569664</v>
-      </c>
-      <c r="AP19">
-        <v>41592.64028570598</v>
-      </c>
-      <c r="AQ19">
-        <v>13864.21342856866</v>
-      </c>
-      <c r="AR19">
+      <c r="BG19">
         <v>22941.76475699374</v>
       </c>
-      <c r="AT19">
+      <c r="BI19">
         <v>0.319533</v>
       </c>
-      <c r="AU19">
+      <c r="BJ19">
         <v>0.3504983022621319</v>
       </c>
-      <c r="AV19">
+      <c r="BK19">
         <v>609011.1027311925</v>
       </c>
-      <c r="AW19">
+      <c r="BL19">
         <v>257606.2427621987</v>
       </c>
-      <c r="AX19">
+      <c r="BM19">
         <v>14179215.2082992</v>
       </c>
-      <c r="AY19">
+      <c r="BN19">
         <v>22941.76475699374</v>
       </c>
-      <c r="AZ19">
+      <c r="BO19">
         <v>16828.12090352728</v>
       </c>
-      <c r="BA19">
+      <c r="BP19">
         <v>41899805.69002441</v>
       </c>
-      <c r="BB19">
+      <c r="BQ19">
         <v>26814203.2505713</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:69">
       <c r="B20">
         <v>0.326109</v>
       </c>
@@ -3249,112 +4143,157 @@
         <v>33.56705794000001</v>
       </c>
       <c r="O20">
+        <v>2.3625</v>
+      </c>
+      <c r="P20">
         <v>180063.1563941207</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>377412.3758020769</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>125804.125267359</v>
       </c>
-      <c r="R20">
+      <c r="S20">
+        <v>8.410291038101438</v>
+      </c>
+      <c r="T20">
         <v>6665.576162247296</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>565879.6429407861</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>691683.768208145</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.326109</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
+        <v>113.565</v>
+      </c>
+      <c r="Z20">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA20">
+        <v>1153.132981519176</v>
+      </c>
+      <c r="AB20">
+        <v>3.7935</v>
+      </c>
+      <c r="AC20">
         <v>387345.9661216516</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>809553.0691942519</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>269851.0230647506</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>269851.0230647506</v>
       </c>
-      <c r="AB20">
+      <c r="AH20">
         <v>0.326109</v>
       </c>
-      <c r="AC20">
+      <c r="AI20">
+        <v>-6.3499101</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL20">
         <v>2225905.911370223</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>18074.35600032621</v>
       </c>
-      <c r="AF20">
+      <c r="AO20">
         <v>0.326109</v>
       </c>
-      <c r="AG20">
+      <c r="AP20">
+        <v>234.653080196248</v>
+      </c>
+      <c r="AQ20">
+        <v>1.75</v>
+      </c>
+      <c r="AR20">
+        <v>11089777.04478679</v>
+      </c>
+      <c r="AS20">
+        <v>23177634.02360439</v>
+      </c>
+      <c r="AT20">
+        <v>7725878.007868131</v>
+      </c>
+      <c r="AU20">
+        <v>3.8</v>
+      </c>
+      <c r="AV20">
         <v>7267205.893677801</v>
       </c>
-      <c r="AH20">
-        <v>11089777.04478679</v>
-      </c>
-      <c r="AI20">
-        <v>23177634.02360439</v>
-      </c>
-      <c r="AJ20">
-        <v>7725878.007868131</v>
-      </c>
-      <c r="AK20">
+      <c r="AW20">
         <v>14993083.90154593</v>
       </c>
-      <c r="AM20">
+      <c r="AY20">
         <v>0.326109</v>
       </c>
-      <c r="AN20">
+      <c r="AZ20">
+        <v>506625</v>
+      </c>
+      <c r="BA20">
+        <v>25219.90528560046</v>
+      </c>
+      <c r="BB20">
+        <v>20693.10910462881</v>
+      </c>
+      <c r="BC20">
+        <v>43248.5980286742</v>
+      </c>
+      <c r="BD20">
+        <v>14416.1993428914</v>
+      </c>
+      <c r="BE20">
+        <v>0.035</v>
+      </c>
+      <c r="BF20">
         <v>9647.281725516337</v>
       </c>
-      <c r="AO20">
-        <v>20693.10910462881</v>
-      </c>
-      <c r="AP20">
-        <v>43248.5980286742</v>
-      </c>
-      <c r="AQ20">
-        <v>14416.1993428914</v>
-      </c>
-      <c r="AR20">
+      <c r="BG20">
         <v>24063.48106840774</v>
       </c>
-      <c r="AT20">
+      <c r="BI20">
         <v>0.326109</v>
       </c>
-      <c r="AU20">
+      <c r="BJ20">
         <v>0.3232916510206261</v>
       </c>
-      <c r="AV20">
+      <c r="BK20">
         <v>691683.768208145</v>
       </c>
-      <c r="AW20">
+      <c r="BL20">
         <v>269851.0230647506</v>
       </c>
-      <c r="AX20">
+      <c r="BM20">
         <v>14993083.90154593</v>
       </c>
-      <c r="AY20">
+      <c r="BN20">
         <v>24063.48106840774</v>
       </c>
-      <c r="AZ20">
+      <c r="BO20">
         <v>18074.35600032621</v>
       </c>
-      <c r="BA20">
+      <c r="BP20">
         <v>38598576.29472867</v>
       </c>
-      <c r="BB20">
+      <c r="BQ20">
         <v>22601819.76484111</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:69">
       <c r="B21">
         <v>0.332724</v>
       </c>
@@ -3392,112 +4331,157 @@
         <v>35.13416197</v>
       </c>
       <c r="O21">
+        <v>2.3625</v>
+      </c>
+      <c r="P21">
         <v>196083.8142058144</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>410991.674575387</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>136997.2248584623</v>
       </c>
-      <c r="R21">
+      <c r="S21">
+        <v>9.644061860867485</v>
+      </c>
+      <c r="T21">
         <v>7643.401227830527</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>648892.9167376958</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>785890.1415961582</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.332724</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>113.565</v>
+      </c>
+      <c r="Z21">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA21">
+        <v>1240.146940585998</v>
+      </c>
+      <c r="AB21">
+        <v>3.7935</v>
+      </c>
+      <c r="AC21">
         <v>406101.8580635486</v>
       </c>
-      <c r="X21">
+      <c r="AD21">
         <v>848752.8833528165</v>
       </c>
-      <c r="Y21">
+      <c r="AE21">
         <v>282917.6277842721</v>
       </c>
-      <c r="Z21">
+      <c r="AF21">
         <v>282917.6277842721</v>
       </c>
-      <c r="AB21">
+      <c r="AH21">
         <v>0.332724</v>
       </c>
-      <c r="AC21">
+      <c r="AI21">
+        <v>-6.8290663</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL21">
         <v>2393869.961451766</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>19438.22408698834</v>
       </c>
-      <c r="AF21">
+      <c r="AO21">
         <v>0.332724</v>
       </c>
-      <c r="AG21">
+      <c r="AP21">
+        <v>249.878499593856</v>
+      </c>
+      <c r="AQ21">
+        <v>1.75</v>
+      </c>
+      <c r="AR21">
+        <v>11698496.52949588</v>
+      </c>
+      <c r="AS21">
+        <v>24449857.74664639</v>
+      </c>
+      <c r="AT21">
+        <v>8149952.582215463</v>
+      </c>
+      <c r="AU21">
+        <v>3.8</v>
+      </c>
+      <c r="AV21">
         <v>7738737.132421718</v>
       </c>
-      <c r="AH21">
-        <v>11698496.52949588</v>
-      </c>
-      <c r="AI21">
-        <v>24449857.74664639</v>
-      </c>
-      <c r="AJ21">
-        <v>8149952.582215463</v>
-      </c>
-      <c r="AK21">
+      <c r="AW21">
         <v>15888689.71463718</v>
       </c>
-      <c r="AM21">
+      <c r="AY21">
         <v>0.332724</v>
       </c>
-      <c r="AN21">
+      <c r="AZ21">
+        <v>506625</v>
+      </c>
+      <c r="BA21">
+        <v>26865.50518331034</v>
+      </c>
+      <c r="BB21">
+        <v>21547.0708451493</v>
+      </c>
+      <c r="BC21">
+        <v>45033.37806636204</v>
+      </c>
+      <c r="BD21">
+        <v>15011.12602212068</v>
+      </c>
+      <c r="BE21">
+        <v>0.035</v>
+      </c>
+      <c r="BF21">
         <v>10276.76727040267</v>
       </c>
-      <c r="AO21">
-        <v>21547.0708451493</v>
-      </c>
-      <c r="AP21">
-        <v>45033.37806636204</v>
-      </c>
-      <c r="AQ21">
-        <v>15011.12602212068</v>
-      </c>
-      <c r="AR21">
+      <c r="BG21">
         <v>25287.89329252335</v>
       </c>
-      <c r="AT21">
+      <c r="BI21">
         <v>0.332724</v>
       </c>
-      <c r="AU21">
+      <c r="BJ21">
         <v>0.2975823240795741</v>
       </c>
-      <c r="AV21">
+      <c r="BK21">
         <v>785890.1415961582</v>
       </c>
-      <c r="AW21">
+      <c r="BL21">
         <v>282917.6277842721</v>
       </c>
-      <c r="AX21">
+      <c r="BM21">
         <v>15888689.71463718</v>
       </c>
-      <c r="AY21">
+      <c r="BN21">
         <v>25287.89329252335</v>
       </c>
-      <c r="AZ21">
+      <c r="BO21">
         <v>19438.22408698834</v>
       </c>
-      <c r="BA21">
+      <c r="BP21">
         <v>34976943.86969664</v>
       </c>
-      <c r="BB21">
+      <c r="BQ21">
         <v>17974720.26829951</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:69">
       <c r="B22">
         <v>0.33943</v>
       </c>
@@ -3535,112 +4519,157 @@
         <v>36.77439949</v>
       </c>
       <c r="O22">
+        <v>2.3625</v>
+      </c>
+      <c r="P22">
         <v>213529.5655825834</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>447557.9694610949</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>149185.9898203649</v>
       </c>
-      <c r="R22">
+      <c r="S22">
+        <v>11.05879885934866</v>
+      </c>
+      <c r="T22">
         <v>8764.651035976784</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>744082.3535751123</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>893268.3433954773</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.33943</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>113.565</v>
+      </c>
+      <c r="Z22">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA22">
+        <v>1335.284427925887</v>
+      </c>
+      <c r="AB22">
+        <v>3.7935</v>
+      </c>
+      <c r="AC22">
         <v>426089.0674905485</v>
       </c>
-      <c r="X22">
+      <c r="AD22">
         <v>890526.1510552464</v>
       </c>
-      <c r="Y22">
+      <c r="AE22">
         <v>296842.0503517488</v>
       </c>
-      <c r="Z22">
+      <c r="AF22">
         <v>296842.0503517488</v>
       </c>
-      <c r="AB22">
+      <c r="AH22">
         <v>0.33943</v>
       </c>
-      <c r="AC22">
+      <c r="AI22">
+        <v>-7.352956</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL22">
         <v>2577514.951974698</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>20929.42141003455</v>
       </c>
-      <c r="AF22">
+      <c r="AO22">
         <v>0.33943</v>
       </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>266.642419517488</v>
+      </c>
+      <c r="AQ22">
+        <v>1.75</v>
+      </c>
+      <c r="AR22">
+        <v>12362330.49036583</v>
+      </c>
+      <c r="AS22">
+        <v>25837270.72486458</v>
+      </c>
+      <c r="AT22">
+        <v>8612423.57495486</v>
+      </c>
+      <c r="AU22">
+        <v>3.8</v>
+      </c>
+      <c r="AV22">
         <v>8257915.732456603</v>
       </c>
-      <c r="AH22">
-        <v>12362330.49036583</v>
-      </c>
-      <c r="AI22">
-        <v>25837270.72486458</v>
-      </c>
-      <c r="AJ22">
-        <v>8612423.57495486</v>
-      </c>
-      <c r="AK22">
+      <c r="AW22">
         <v>16870339.30741146</v>
       </c>
-      <c r="AM22">
+      <c r="AY22">
         <v>0.33943</v>
       </c>
-      <c r="AN22">
+      <c r="AZ22">
+        <v>506625</v>
+      </c>
+      <c r="BA22">
+        <v>28676.85339845095</v>
+      </c>
+      <c r="BB22">
+        <v>22463.19739516633</v>
+      </c>
+      <c r="BC22">
+        <v>46948.08255589762</v>
+      </c>
+      <c r="BD22">
+        <v>15649.36085196587</v>
+      </c>
+      <c r="BE22">
+        <v>0.035</v>
+      </c>
+      <c r="BF22">
         <v>10969.65593658057</v>
       </c>
-      <c r="AO22">
-        <v>22463.19739516633</v>
-      </c>
-      <c r="AP22">
-        <v>46948.08255589762</v>
-      </c>
-      <c r="AQ22">
-        <v>15649.36085196587</v>
-      </c>
-      <c r="AR22">
+      <c r="BG22">
         <v>26619.01678854645</v>
       </c>
-      <c r="AT22">
+      <c r="BI22">
         <v>0.33943</v>
       </c>
-      <c r="AU22">
+      <c r="BJ22">
         <v>0.2733919634159239</v>
       </c>
-      <c r="AV22">
+      <c r="BK22">
         <v>893268.3433954773</v>
       </c>
-      <c r="AW22">
+      <c r="BL22">
         <v>296842.0503517488</v>
       </c>
-      <c r="AX22">
+      <c r="BM22">
         <v>16870339.30741146</v>
       </c>
-      <c r="AY22">
+      <c r="BN22">
         <v>26619.01678854645</v>
       </c>
-      <c r="AZ22">
+      <c r="BO22">
         <v>20929.42141003455</v>
       </c>
-      <c r="BA22">
+      <c r="BP22">
         <v>31011257.83584189</v>
       </c>
-      <c r="BB22">
+      <c r="BQ22">
         <v>12903259.69648462</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:69">
       <c r="B23">
         <v>0.346193</v>
       </c>
@@ -3678,112 +4707,157 @@
         <v>38.49124836</v>
       </c>
       <c r="O23">
+        <v>2.3625</v>
+      </c>
+      <c r="P23">
         <v>232527.8973857037</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>487378.4729204351</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>162459.4909734784</v>
       </c>
-      <c r="R23">
+      <c r="S23">
+        <v>12.6811073697057</v>
+      </c>
+      <c r="T23">
         <v>10050.41164586026</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>853238.0720183448</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>1015697.562991823</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.346193</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>113.565</v>
+      </c>
+      <c r="Z23">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA23">
+        <v>1439.2745789378</v>
+      </c>
+      <c r="AB23">
+        <v>3.7935</v>
+      </c>
+      <c r="AC23">
         <v>447374.068478602</v>
       </c>
-      <c r="X23">
+      <c r="AD23">
         <v>935011.8031202781</v>
       </c>
-      <c r="Y23">
+      <c r="AE23">
         <v>311670.6010400926</v>
       </c>
-      <c r="Z23">
+      <c r="AF23">
         <v>311670.6010400926</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>0.346193</v>
       </c>
-      <c r="AC23">
+      <c r="AI23">
+        <v>-7.9255943</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL23">
         <v>2778248.341420164</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>22559.37653233173</v>
       </c>
-      <c r="AF23">
+      <c r="AO23">
         <v>0.346193</v>
       </c>
-      <c r="AG23">
+      <c r="AP23">
+        <v>285.116470689624</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>13086679.15423355</v>
+      </c>
+      <c r="AS23">
+        <v>27351159.43234811</v>
+      </c>
+      <c r="AT23">
+        <v>9117053.144116037</v>
+      </c>
+      <c r="AU23">
+        <v>3.8</v>
+      </c>
+      <c r="AV23">
         <v>8830057.097257653</v>
       </c>
-      <c r="AH23">
-        <v>13086679.15423355</v>
-      </c>
-      <c r="AI23">
-        <v>27351159.43234811</v>
-      </c>
-      <c r="AJ23">
-        <v>9117053.144116037</v>
-      </c>
-      <c r="AK23">
+      <c r="AW23">
         <v>17947110.24137369</v>
       </c>
-      <c r="AM23">
+      <c r="AY23">
         <v>0.346193</v>
       </c>
-      <c r="AN23">
+      <c r="AZ23">
+        <v>506625</v>
+      </c>
+      <c r="BA23">
+        <v>30672.39448822767</v>
+      </c>
+      <c r="BB23">
+        <v>23446.07752269854</v>
+      </c>
+      <c r="BC23">
+        <v>49002.30202243994</v>
+      </c>
+      <c r="BD23">
+        <v>16334.10067414665</v>
+      </c>
+      <c r="BE23">
+        <v>0.035</v>
+      </c>
+      <c r="BF23">
         <v>11733.00325568854</v>
       </c>
-      <c r="AO23">
-        <v>23446.07752269854</v>
-      </c>
-      <c r="AP23">
-        <v>49002.30202243994</v>
-      </c>
-      <c r="AQ23">
-        <v>16334.10067414665</v>
-      </c>
-      <c r="AR23">
+      <c r="BG23">
         <v>28067.10392983518</v>
       </c>
-      <c r="AT23">
+      <c r="BI23">
         <v>0.346193</v>
       </c>
-      <c r="AU23">
+      <c r="BJ23">
         <v>0.2506918211026771</v>
       </c>
-      <c r="AV23">
+      <c r="BK23">
         <v>1015697.562991823</v>
       </c>
-      <c r="AW23">
+      <c r="BL23">
         <v>311670.6010400926</v>
       </c>
-      <c r="AX23">
+      <c r="BM23">
         <v>17947110.24137369</v>
       </c>
-      <c r="AY23">
+      <c r="BN23">
         <v>28067.10392983518</v>
       </c>
-      <c r="AZ23">
+      <c r="BO23">
         <v>22559.37653233173</v>
       </c>
-      <c r="BA23">
+      <c r="BP23">
         <v>26666331.81091941</v>
       </c>
-      <c r="BB23">
+      <c r="BQ23">
         <v>7341226.925051641</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:69">
       <c r="B24">
         <v>0.35314</v>
       </c>
@@ -3821,112 +4895,157 @@
         <v>40.28825206</v>
       </c>
       <c r="O24">
+        <v>2.3625</v>
+      </c>
+      <c r="P24">
         <v>253216.5888853856</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>530741.9703037683</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>176913.9901012561</v>
       </c>
-      <c r="R24">
+      <c r="S24">
+        <v>14.54140823210364</v>
+      </c>
+      <c r="T24">
         <v>11524.79309435374</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>978406.9137394065</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>1155320.903840663</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.35314</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
+        <v>113.565</v>
+      </c>
+      <c r="Z24">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA24">
+        <v>1552.695566340522</v>
+      </c>
+      <c r="AB24">
+        <v>3.7935</v>
+      </c>
+      <c r="AC24">
         <v>469984.499643525</v>
       </c>
-      <c r="X24">
+      <c r="AD24">
         <v>982267.6042549672</v>
       </c>
-      <c r="Y24">
+      <c r="AE24">
         <v>327422.5347516557</v>
       </c>
-      <c r="Z24">
+      <c r="AF24">
         <v>327422.5347516557</v>
       </c>
-      <c r="AB24">
+      <c r="AH24">
         <v>0.35314</v>
       </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>-8.550165</v>
+      </c>
+      <c r="AJ24">
+        <v>20</v>
+      </c>
+      <c r="AK24">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL24">
         <v>2997186.183264356</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>24337.15180810657</v>
       </c>
-      <c r="AF24">
+      <c r="AO24">
         <v>0.35314</v>
       </c>
-      <c r="AG24">
+      <c r="AP24">
+        <v>305.33583229016</v>
+      </c>
+      <c r="AQ24">
+        <v>1.75</v>
+      </c>
+      <c r="AR24">
+        <v>13871441.7277398</v>
+      </c>
+      <c r="AS24">
+        <v>28991313.21097618</v>
+      </c>
+      <c r="AT24">
+        <v>9663771.070325393</v>
+      </c>
+      <c r="AU24">
+        <v>3.8</v>
+      </c>
+      <c r="AV24">
         <v>9456250.726026256</v>
       </c>
-      <c r="AH24">
-        <v>13871441.7277398</v>
-      </c>
-      <c r="AI24">
-        <v>28991313.21097618</v>
-      </c>
-      <c r="AJ24">
-        <v>9663771.070325393</v>
-      </c>
-      <c r="AK24">
+      <c r="AW24">
         <v>19120021.79635165</v>
       </c>
-      <c r="AM24">
+      <c r="AY24">
         <v>0.35314</v>
       </c>
-      <c r="AN24">
+      <c r="AZ24">
+        <v>506625</v>
+      </c>
+      <c r="BA24">
+        <v>32855.97294247793</v>
+      </c>
+      <c r="BB24">
+        <v>24492.6992670809</v>
+      </c>
+      <c r="BC24">
+        <v>51189.74146819907</v>
+      </c>
+      <c r="BD24">
+        <v>17063.24715606635</v>
+      </c>
+      <c r="BE24">
+        <v>0.035</v>
+      </c>
+      <c r="BF24">
         <v>12568.2798469114</v>
       </c>
-      <c r="AO24">
-        <v>24492.6992670809</v>
-      </c>
-      <c r="AP24">
-        <v>51189.74146819907</v>
-      </c>
-      <c r="AQ24">
-        <v>17063.24715606635</v>
-      </c>
-      <c r="AR24">
+      <c r="BG24">
         <v>29631.52700297775</v>
       </c>
-      <c r="AT24">
+      <c r="BI24">
         <v>0.35314</v>
       </c>
-      <c r="AU24">
+      <c r="BJ24">
         <v>0.2295344235828487</v>
       </c>
-      <c r="AV24">
+      <c r="BK24">
         <v>1155320.903840663</v>
       </c>
-      <c r="AW24">
+      <c r="BL24">
         <v>327422.5347516557</v>
       </c>
-      <c r="AX24">
+      <c r="BM24">
         <v>19120021.79635165</v>
       </c>
-      <c r="AY24">
+      <c r="BN24">
         <v>29631.52700297775</v>
       </c>
-      <c r="AZ24">
+      <c r="BO24">
         <v>24337.15180810657</v>
       </c>
-      <c r="BA24">
+      <c r="BP24">
         <v>21932286.15652159</v>
       </c>
-      <c r="BB24">
+      <c r="BQ24">
         <v>1275552.242766537</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:69">
       <c r="B25">
         <v>0.360203</v>
       </c>
@@ -3964,112 +5083,157 @@
         <v>42.16915093</v>
       </c>
       <c r="O25">
+        <v>2.3625</v>
+      </c>
+      <c r="P25">
         <v>275746.0165556387</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>577963.6507006187</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>192654.5502335396</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>16.67461288274309</v>
+      </c>
+      <c r="T25">
         <v>13215.46444021804</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>1121937.866539344</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>1314592.416772883</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.360203</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
+        <v>113.565</v>
+      </c>
+      <c r="Z25">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA25">
+        <v>1676.336525616648</v>
+      </c>
+      <c r="AB25">
+        <v>3.7935</v>
+      </c>
+      <c r="AC25">
         <v>493983.2426840631</v>
       </c>
-      <c r="X25">
+      <c r="AD25">
         <v>1032424.977209692</v>
       </c>
-      <c r="Y25">
+      <c r="AE25">
         <v>344141.6590698973</v>
       </c>
-      <c r="Z25">
+      <c r="AF25">
         <v>344141.6590698973</v>
       </c>
-      <c r="AB25">
+      <c r="AH25">
         <v>0.360203</v>
       </c>
-      <c r="AC25">
+      <c r="AI25">
+        <v>-9.231013600000001</v>
+      </c>
+      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AK25">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL25">
         <v>3235851.754842786</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>26275.11624932342</v>
       </c>
-      <c r="AF25">
+      <c r="AO25">
         <v>0.360203</v>
       </c>
-      <c r="AG25">
+      <c r="AP25">
+        <v>327.516219911048</v>
+      </c>
+      <c r="AQ25">
+        <v>1.75</v>
+      </c>
+      <c r="AR25">
+        <v>14723409.30179144</v>
+      </c>
+      <c r="AS25">
+        <v>30771925.44074411</v>
+      </c>
+      <c r="AT25">
+        <v>10257308.48024804</v>
+      </c>
+      <c r="AU25">
+        <v>3.8</v>
+      </c>
+      <c r="AV25">
         <v>10143177.33064516</v>
       </c>
-      <c r="AH25">
-        <v>14723409.30179144</v>
-      </c>
-      <c r="AI25">
-        <v>30771925.44074411</v>
-      </c>
-      <c r="AJ25">
-        <v>10257308.48024804</v>
-      </c>
-      <c r="AK25">
+      <c r="AW25">
         <v>20400485.81089319</v>
       </c>
-      <c r="AM25">
+      <c r="AY25">
         <v>0.360203</v>
       </c>
-      <c r="AN25">
+      <c r="AZ25">
+        <v>506625</v>
+      </c>
+      <c r="BA25">
+        <v>35250.77321209538</v>
+      </c>
+      <c r="BB25">
+        <v>25609.05731364972</v>
+      </c>
+      <c r="BC25">
+        <v>53522.92978552791</v>
+      </c>
+      <c r="BD25">
+        <v>17840.97659517597</v>
+      </c>
+      <c r="BE25">
+        <v>0.035</v>
+      </c>
+      <c r="BF25">
         <v>13484.35437676037</v>
       </c>
-      <c r="AO25">
-        <v>25609.05731364972</v>
-      </c>
-      <c r="AP25">
-        <v>53522.92978552791</v>
-      </c>
-      <c r="AQ25">
-        <v>17840.97659517597</v>
-      </c>
-      <c r="AR25">
+      <c r="BG25">
         <v>31325.33097193634</v>
       </c>
-      <c r="AT25">
+      <c r="BI25">
         <v>0.360203</v>
       </c>
-      <c r="AU25">
+      <c r="BJ25">
         <v>0.2098298635878212</v>
       </c>
-      <c r="AV25">
+      <c r="BK25">
         <v>1314592.416772883</v>
       </c>
-      <c r="AW25">
+      <c r="BL25">
         <v>344141.6590698973</v>
       </c>
-      <c r="AX25">
+      <c r="BM25">
         <v>20400485.81089319</v>
       </c>
-      <c r="AY25">
+      <c r="BN25">
         <v>31325.33097193634</v>
       </c>
-      <c r="AZ25">
+      <c r="BO25">
         <v>26275.11624932342</v>
       </c>
-      <c r="BA25">
+      <c r="BP25">
         <v>16750949.38337407</v>
       </c>
-      <c r="BB25">
+      <c r="BQ25">
         <v>-5365870.950583164</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:69">
       <c r="B26">
         <v>0.367444</v>
       </c>
@@ -4107,112 +5271,157 @@
         <v>44.13784936</v>
       </c>
       <c r="O26">
+        <v>2.3625</v>
+      </c>
+      <c r="P26">
         <v>300279.799448695</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>629386.4596444648</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>209795.4865481549</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>19.12073993241331</v>
+      </c>
+      <c r="T26">
         <v>15154.14243343417</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>1286523.550338422</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>1496319.036886577</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.367444</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
+        <v>113.565</v>
+      </c>
+      <c r="Z26">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA26">
+        <v>1810.953813752714</v>
+      </c>
+      <c r="AB26">
+        <v>3.7935</v>
+      </c>
+      <c r="AC26">
         <v>519418.2740362596</v>
       </c>
-      <c r="X26">
+      <c r="AD26">
         <v>1085584.192735783</v>
       </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>361861.3975785942</v>
       </c>
-      <c r="Z26">
+      <c r="AF26">
         <v>361861.3975785942</v>
       </c>
-      <c r="AB26">
+      <c r="AH26">
         <v>0.367444</v>
       </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>-9.9723051</v>
+      </c>
+      <c r="AJ26">
+        <v>20</v>
+      </c>
+      <c r="AK26">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL26">
         <v>3495705.060781478</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>28385.1250935456</v>
       </c>
-      <c r="AF26">
+      <c r="AO26">
         <v>0.367444</v>
       </c>
-      <c r="AG26">
+      <c r="AP26">
+        <v>351.7610896856</v>
+      </c>
+      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="AR26">
+        <v>15644839.88306483</v>
+      </c>
+      <c r="AS26">
+        <v>32697715.3556055</v>
+      </c>
+      <c r="AT26">
+        <v>10899238.4518685</v>
+      </c>
+      <c r="AU26">
+        <v>3.8</v>
+      </c>
+      <c r="AV26">
         <v>10894040.94756303</v>
       </c>
-      <c r="AH26">
-        <v>15644839.88306483</v>
-      </c>
-      <c r="AI26">
-        <v>32697715.3556055</v>
-      </c>
-      <c r="AJ26">
-        <v>10899238.4518685</v>
-      </c>
-      <c r="AK26">
+      <c r="AW26">
         <v>21793279.39943153</v>
       </c>
-      <c r="AM26">
+      <c r="AY26">
         <v>0.367444</v>
       </c>
-      <c r="AN26">
+      <c r="AZ26">
+        <v>506625</v>
+      </c>
+      <c r="BA26">
+        <v>37867.86416162387</v>
+      </c>
+      <c r="BB26">
+        <v>26794.87972708232</v>
+      </c>
+      <c r="BC26">
+        <v>56001.29862960205</v>
+      </c>
+      <c r="BD26">
+        <v>18667.09954320068</v>
+      </c>
+      <c r="BE26">
+        <v>0.035</v>
+      </c>
+      <c r="BF26">
         <v>14485.46097908436</v>
       </c>
-      <c r="AO26">
-        <v>26794.87972708232</v>
-      </c>
-      <c r="AP26">
-        <v>56001.29862960205</v>
-      </c>
-      <c r="AQ26">
-        <v>18667.09954320068</v>
-      </c>
-      <c r="AR26">
+      <c r="BG26">
         <v>33152.56052228504</v>
       </c>
-      <c r="AT26">
+      <c r="BI26">
         <v>0.367444</v>
       </c>
-      <c r="AU26">
+      <c r="BJ26">
         <v>0.191549619254722</v>
       </c>
-      <c r="AV26">
+      <c r="BK26">
         <v>1496319.036886577</v>
       </c>
-      <c r="AW26">
+      <c r="BL26">
         <v>361861.3975785942</v>
       </c>
-      <c r="AX26">
+      <c r="BM26">
         <v>21793279.39943153</v>
       </c>
-      <c r="AY26">
+      <c r="BN26">
         <v>33152.56052228504</v>
       </c>
-      <c r="AZ26">
+      <c r="BO26">
         <v>28385.1250935456</v>
       </c>
-      <c r="BA26">
+      <c r="BP26">
         <v>11103657.77058188</v>
       </c>
-      <c r="BB26">
+      <c r="BQ26">
         <v>-12609339.74893065</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:69">
       <c r="B27">
         <v>0.374835</v>
       </c>
@@ -4250,112 +5459,157 @@
         <v>46.19844860000001</v>
       </c>
       <c r="O27">
+        <v>2.3625</v>
+      </c>
+      <c r="P27">
         <v>326996.2880542928</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>685384.2197617978</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>228461.4065872659</v>
       </c>
-      <c r="R27">
+      <c r="S27">
+        <v>21.92569483307472</v>
+      </c>
+      <c r="T27">
         <v>17377.20943995337</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>1475252.676412708</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>1703714.082999974</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.374835</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
+        <v>113.565</v>
+      </c>
+      <c r="Z27">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA27">
+        <v>1957.642196197306</v>
+      </c>
+      <c r="AB27">
+        <v>3.7935</v>
+      </c>
+      <c r="AC27">
         <v>546391.6928716935</v>
       </c>
-      <c r="X27">
+      <c r="AD27">
         <v>1141958.638101839</v>
       </c>
-      <c r="Y27">
+      <c r="AE27">
         <v>380652.8793672798</v>
       </c>
-      <c r="Z27">
+      <c r="AF27">
         <v>380652.8793672798</v>
       </c>
-      <c r="AB27">
+      <c r="AH27">
         <v>0.374835</v>
       </c>
-      <c r="AC27">
+      <c r="AI27">
+        <v>-10.780068</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL27">
         <v>3778859.339468913</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>30684.33783648757</v>
       </c>
-      <c r="AF27">
+      <c r="AO27">
         <v>0.374835</v>
       </c>
-      <c r="AG27">
+      <c r="AP27">
+        <v>378.30993983272</v>
+      </c>
+      <c r="AQ27">
+        <v>1.75</v>
+      </c>
+      <c r="AR27">
+        <v>16642979.71476318</v>
+      </c>
+      <c r="AS27">
+        <v>34783827.60385504</v>
+      </c>
+      <c r="AT27">
+        <v>11594609.20128501</v>
+      </c>
+      <c r="AU27">
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
         <v>11716258.83661934</v>
       </c>
-      <c r="AH27">
-        <v>16642979.71476318</v>
-      </c>
-      <c r="AI27">
-        <v>34783827.60385504</v>
-      </c>
-      <c r="AJ27">
-        <v>11594609.20128501</v>
-      </c>
-      <c r="AK27">
+      <c r="AW27">
         <v>23310868.03790435</v>
       </c>
-      <c r="AM27">
+      <c r="AY27">
         <v>0.374835</v>
       </c>
-      <c r="AN27">
+      <c r="AZ27">
+        <v>506625</v>
+      </c>
+      <c r="BA27">
+        <v>40733.04371419527</v>
+      </c>
+      <c r="BB27">
+        <v>28056.11128018482</v>
+      </c>
+      <c r="BC27">
+        <v>58637.27257558628</v>
+      </c>
+      <c r="BD27">
+        <v>19545.75752519543</v>
+      </c>
+      <c r="BE27">
+        <v>0.035</v>
+      </c>
+      <c r="BF27">
         <v>15581.468042744</v>
       </c>
-      <c r="AO27">
-        <v>28056.11128018482</v>
-      </c>
-      <c r="AP27">
-        <v>58637.27257558628</v>
-      </c>
-      <c r="AQ27">
-        <v>19545.75752519543</v>
-      </c>
-      <c r="AR27">
+      <c r="BG27">
         <v>35127.22556793943</v>
       </c>
-      <c r="AT27">
+      <c r="BI27">
         <v>0.374835</v>
       </c>
-      <c r="AU27">
+      <c r="BJ27">
         <v>0.1746261468487201</v>
       </c>
-      <c r="AV27">
+      <c r="BK27">
         <v>1703714.082999974</v>
       </c>
-      <c r="AW27">
+      <c r="BL27">
         <v>380652.8793672798</v>
       </c>
-      <c r="AX27">
+      <c r="BM27">
         <v>23310868.03790435</v>
       </c>
-      <c r="AY27">
+      <c r="BN27">
         <v>35127.22556793943</v>
       </c>
-      <c r="AZ27">
+      <c r="BO27">
         <v>30684.33783648757</v>
       </c>
-      <c r="BA27">
+      <c r="BP27">
         <v>4935047.310530694</v>
       </c>
-      <c r="BB27">
+      <c r="BQ27">
         <v>-20525999.25314534</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:69">
       <c r="B28">
         <v>0.382409</v>
       </c>
@@ -4393,112 +5647,157 @@
         <v>48.35527957000001</v>
       </c>
       <c r="O28">
+        <v>2.3625</v>
+      </c>
+      <c r="P28">
         <v>356090.229524104</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>746365.1210825221</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>248788.373694174</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>25.14217736772927</v>
+      </c>
+      <c r="T28">
         <v>19926.43267279384</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>1691671.107117394</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>1940459.480811568</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.382409</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>113.565</v>
+      </c>
+      <c r="Z28">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA28">
+        <v>2116.863241390443</v>
+      </c>
+      <c r="AB28">
+        <v>3.7935</v>
+      </c>
+      <c r="AC28">
         <v>574880.7316061106</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
         <v>1201500.729056771</v>
       </c>
-      <c r="Y28">
+      <c r="AE28">
         <v>400500.2430189237</v>
       </c>
-      <c r="Z28">
+      <c r="AF28">
         <v>400500.2430189237</v>
       </c>
-      <c r="AB28">
+      <c r="AH28">
         <v>0.382409</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
+        <v>-11.656844</v>
+      </c>
+      <c r="AJ28">
+        <v>20</v>
+      </c>
+      <c r="AK28">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL28">
         <v>4086205.561795358</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>33179.9891617783</v>
       </c>
-      <c r="AF28">
+      <c r="AO28">
         <v>0.382409</v>
       </c>
-      <c r="AG28">
+      <c r="AP28">
+        <v>407.290282084</v>
+      </c>
+      <c r="AQ28">
+        <v>1.75</v>
+      </c>
+      <c r="AR28">
+        <v>17720620.91955009</v>
+      </c>
+      <c r="AS28">
+        <v>37036097.72185969</v>
+      </c>
+      <c r="AT28">
+        <v>12345365.90728656</v>
+      </c>
+      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="AV28">
         <v>12613780.03614148</v>
       </c>
-      <c r="AH28">
-        <v>17720620.91955009</v>
-      </c>
-      <c r="AI28">
-        <v>37036097.72185969</v>
-      </c>
-      <c r="AJ28">
-        <v>12345365.90728656</v>
-      </c>
-      <c r="AK28">
+      <c r="AW28">
         <v>24959145.94342804</v>
       </c>
-      <c r="AM28">
+      <c r="AY28">
         <v>0.382409</v>
       </c>
-      <c r="AN28">
+      <c r="AZ28">
+        <v>506625</v>
+      </c>
+      <c r="BA28">
+        <v>43859.98809506481</v>
+      </c>
+      <c r="BB28">
+        <v>29392.71250729305</v>
+      </c>
+      <c r="BC28">
+        <v>61430.76914024246</v>
+      </c>
+      <c r="BD28">
+        <v>20476.92304674748</v>
+      </c>
+      <c r="BE28">
+        <v>0.035</v>
+      </c>
+      <c r="BF28">
         <v>16777.60708611672</v>
       </c>
-      <c r="AO28">
-        <v>29392.71250729305</v>
-      </c>
-      <c r="AP28">
-        <v>61430.76914024246</v>
-      </c>
-      <c r="AQ28">
-        <v>20476.92304674748</v>
-      </c>
-      <c r="AR28">
+      <c r="BG28">
         <v>37254.53013286421</v>
       </c>
-      <c r="AT28">
+      <c r="BI28">
         <v>0.382409</v>
       </c>
-      <c r="AU28">
+      <c r="BJ28">
         <v>0.1590220807764253</v>
       </c>
-      <c r="AV28">
+      <c r="BK28">
         <v>1940459.480811568</v>
       </c>
-      <c r="AW28">
+      <c r="BL28">
         <v>400500.2430189237</v>
       </c>
-      <c r="AX28">
+      <c r="BM28">
         <v>24959145.94342804</v>
       </c>
-      <c r="AY28">
+      <c r="BN28">
         <v>37254.53013286421</v>
       </c>
-      <c r="AZ28">
+      <c r="BO28">
         <v>33179.9891617783</v>
       </c>
-      <c r="BA28">
+      <c r="BP28">
         <v>-1765716.227530155</v>
       </c>
-      <c r="BB28">
+      <c r="BQ28">
         <v>-29136256.41408333</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:69">
       <c r="B29">
         <v>0.390176</v>
       </c>
@@ -4536,112 +5835,157 @@
         <v>50.61277162</v>
       </c>
       <c r="O29">
+        <v>2.3625</v>
+      </c>
+      <c r="P29">
         <v>387772.2799624037</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>812770.6988011982</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>270923.5662670661</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>28.83045866476452</v>
+      </c>
+      <c r="T29">
         <v>22849.58001475913</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>1939834.136669655</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>2210757.702936722</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.390176</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
+        <v>113.565</v>
+      </c>
+      <c r="Z29">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA29">
+        <v>2289.63896649528</v>
+      </c>
+      <c r="AB29">
+        <v>3.7935</v>
+      </c>
+      <c r="AC29">
         <v>604959.0617130549</v>
       </c>
-      <c r="X29">
+      <c r="AD29">
         <v>1264364.438980285</v>
       </c>
-      <c r="Y29">
+      <c r="AE29">
         <v>421454.8129934282</v>
       </c>
-      <c r="Z29">
+      <c r="AF29">
         <v>421454.8129934282</v>
       </c>
-      <c r="AB29">
+      <c r="AH29">
         <v>0.390176</v>
       </c>
-      <c r="AC29">
+      <c r="AI29">
+        <v>-12.608261</v>
+      </c>
+      <c r="AJ29">
+        <v>20</v>
+      </c>
+      <c r="AK29">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL29">
         <v>4419716.539293783</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>35888.09829906552</v>
       </c>
-      <c r="AF29">
+      <c r="AO29">
         <v>0.390176</v>
       </c>
-      <c r="AG29">
+      <c r="AP29">
+        <v>438.90582129296</v>
+      </c>
+      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="AR29">
+        <v>18883223.53806467</v>
+      </c>
+      <c r="AS29">
+        <v>39465937.19455515</v>
+      </c>
+      <c r="AT29">
+        <v>13155312.39818505</v>
+      </c>
+      <c r="AU29">
+        <v>3.8</v>
+      </c>
+      <c r="AV29">
         <v>13592913.28544297</v>
       </c>
-      <c r="AH29">
-        <v>18883223.53806467</v>
-      </c>
-      <c r="AI29">
-        <v>39465937.19455515</v>
-      </c>
-      <c r="AJ29">
-        <v>13155312.39818505</v>
-      </c>
-      <c r="AK29">
+      <c r="AW29">
         <v>26748225.68362802</v>
       </c>
-      <c r="AM29">
+      <c r="AY29">
         <v>0.390176</v>
       </c>
-      <c r="AN29">
+      <c r="AZ29">
+        <v>506625</v>
+      </c>
+      <c r="BA29">
+        <v>47270.56326995941</v>
+      </c>
+      <c r="BB29">
+        <v>30807.78585986526</v>
+      </c>
+      <c r="BC29">
+        <v>64388.2724471184</v>
+      </c>
+      <c r="BD29">
+        <v>21462.7574823728</v>
+      </c>
+      <c r="BE29">
+        <v>0.035</v>
+      </c>
+      <c r="BF29">
         <v>18082.24242021714</v>
       </c>
-      <c r="AO29">
-        <v>30807.78585986526</v>
-      </c>
-      <c r="AP29">
-        <v>64388.2724471184</v>
-      </c>
-      <c r="AQ29">
-        <v>21462.7574823728</v>
-      </c>
-      <c r="AR29">
+      <c r="BG29">
         <v>39544.99990258994</v>
       </c>
-      <c r="AT29">
+      <c r="BI29">
         <v>0.390176</v>
       </c>
-      <c r="AU29">
+      <c r="BJ29">
         <v>0.1446622183806729</v>
       </c>
-      <c r="AV29">
+      <c r="BK29">
         <v>2210757.702936722</v>
       </c>
-      <c r="AW29">
+      <c r="BL29">
         <v>421454.8129934282</v>
       </c>
-      <c r="AX29">
+      <c r="BM29">
         <v>26748225.68362802</v>
       </c>
-      <c r="AY29">
+      <c r="BN29">
         <v>39544.99990258994</v>
       </c>
-      <c r="AZ29">
+      <c r="BO29">
         <v>35888.09829906552</v>
       </c>
-      <c r="BA29">
+      <c r="BP29">
         <v>-9058570.446379934</v>
       </c>
-      <c r="BB29">
+      <c r="BQ29">
         <v>-38514441.74413975</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:69">
       <c r="B30">
         <v>0.3981</v>
       </c>
@@ -4679,112 +6023,157 @@
         <v>52.9756822</v>
       </c>
       <c r="O30">
+        <v>2.3625</v>
+      </c>
+      <c r="P30">
         <v>422273.536677011</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>885085.3328750151</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>295028.4442916717</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>33.05984891428012</v>
+      </c>
+      <c r="T30">
         <v>26201.58325701271</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>2224405.245256809</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>2519433.68954848</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.3981</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>113.565</v>
+      </c>
+      <c r="Z30">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA30">
+        <v>2477.200608094947</v>
+      </c>
+      <c r="AB30">
+        <v>3.7935</v>
+      </c>
+      <c r="AC30">
         <v>636725.4326370736</v>
       </c>
-      <c r="X30">
+      <c r="AD30">
         <v>1330756.154211484</v>
       </c>
-      <c r="Y30">
+      <c r="AE30">
         <v>443585.3847371612</v>
       </c>
-      <c r="Z30">
+      <c r="AF30">
         <v>443585.3847371612</v>
       </c>
-      <c r="AB30">
+      <c r="AH30">
         <v>0.3981</v>
       </c>
-      <c r="AC30">
+      <c r="AI30">
+        <v>-13.641099</v>
+      </c>
+      <c r="AJ30">
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL30">
         <v>4781768.942159738</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>38827.96381033707</v>
       </c>
-      <c r="AF30">
+      <c r="AO30">
         <v>0.3981</v>
       </c>
-      <c r="AG30">
+      <c r="AP30">
+        <v>473.46126170448</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>20139666.65036922</v>
+      </c>
+      <c r="AS30">
+        <v>42091903.29927166</v>
+      </c>
+      <c r="AT30">
+        <v>14030634.43309055</v>
+      </c>
+      <c r="AU30">
+        <v>3.8</v>
+      </c>
+      <c r="AV30">
         <v>14663095.27498774</v>
       </c>
-      <c r="AH30">
-        <v>20139666.65036922</v>
-      </c>
-      <c r="AI30">
-        <v>42091903.29927166</v>
-      </c>
-      <c r="AJ30">
-        <v>14030634.43309055</v>
-      </c>
-      <c r="AK30">
+      <c r="AW30">
         <v>28693729.70807829</v>
       </c>
-      <c r="AM30">
+      <c r="AY30">
         <v>0.3981</v>
       </c>
-      <c r="AN30">
+      <c r="AZ30">
+        <v>506625</v>
+      </c>
+      <c r="BA30">
+        <v>50997.4861358803</v>
+      </c>
+      <c r="BB30">
+        <v>32308.17505245281</v>
+      </c>
+      <c r="BC30">
+        <v>67524.08585962637</v>
+      </c>
+      <c r="BD30">
+        <v>22508.02861987545</v>
+      </c>
+      <c r="BE30">
+        <v>0.035</v>
+      </c>
+      <c r="BF30">
         <v>19507.8891246612</v>
       </c>
-      <c r="AO30">
-        <v>32308.17505245281</v>
-      </c>
-      <c r="AP30">
-        <v>67524.08585962637</v>
-      </c>
-      <c r="AQ30">
-        <v>22508.02861987545</v>
-      </c>
-      <c r="AR30">
+      <c r="BG30">
         <v>42015.91774453665</v>
       </c>
-      <c r="AT30">
+      <c r="BI30">
         <v>0.3981</v>
       </c>
-      <c r="AU30">
+      <c r="BJ30">
         <v>0.1314664524090473</v>
       </c>
-      <c r="AV30">
+      <c r="BK30">
         <v>2519433.68954848</v>
       </c>
-      <c r="AW30">
+      <c r="BL30">
         <v>443585.3847371612</v>
       </c>
-      <c r="AX30">
+      <c r="BM30">
         <v>28693729.70807829</v>
       </c>
-      <c r="AY30">
+      <c r="BN30">
         <v>42015.91774453665</v>
       </c>
-      <c r="AZ30">
+      <c r="BO30">
         <v>38827.96381033707</v>
       </c>
-      <c r="BA30">
+      <c r="BP30">
         <v>-16987601.4672457</v>
       </c>
-      <c r="BB30">
+      <c r="BQ30">
         <v>-48725194.13116451</v>
       </c>
     </row>
-    <row r="31" spans="2:54">
+    <row r="31" spans="2:69">
       <c r="B31">
         <v>0.406204</v>
       </c>
@@ -4822,108 +6211,153 @@
         <v>55.44889999999999</v>
       </c>
       <c r="O31">
+        <v>2.3625</v>
+      </c>
+      <c r="P31">
         <v>459844.3530727482</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>963833.7640404804</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>321277.9213468268</v>
       </c>
-      <c r="R31">
+      <c r="S31">
+        <v>37.90966923670273</v>
+      </c>
+      <c r="T31">
         <v>30045.30835354876</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>2550721.490431483</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>2871999.41177831</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.406204</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
+        <v>113.565</v>
+      </c>
+      <c r="Z31">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA31">
+        <v>2680.453252196864</v>
+      </c>
+      <c r="AB31">
+        <v>3.7935</v>
+      </c>
+      <c r="AC31">
         <v>670212.9048139055</v>
       </c>
-      <c r="X31">
+      <c r="AD31">
         <v>1400744.971061062</v>
       </c>
-      <c r="Y31">
+      <c r="AE31">
         <v>466914.9903536874</v>
       </c>
-      <c r="Z31">
+      <c r="AF31">
         <v>466914.9903536874</v>
       </c>
-      <c r="AB31">
+      <c r="AH31">
         <v>0.406204</v>
       </c>
-      <c r="AC31">
+      <c r="AI31">
+        <v>-14.760342</v>
+      </c>
+      <c r="AJ31">
+        <v>20</v>
+      </c>
+      <c r="AK31">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL31">
         <v>5174109.868365881</v>
       </c>
-      <c r="AD31">
+      <c r="AM31">
         <v>42013.77213113095</v>
       </c>
-      <c r="AF31">
+      <c r="AO31">
         <v>0.406204</v>
       </c>
-      <c r="AG31">
+      <c r="AP31">
+        <v>511.1695209544</v>
+      </c>
+      <c r="AQ31">
+        <v>1.75</v>
+      </c>
+      <c r="AR31">
+        <v>21495161.00651716</v>
+      </c>
+      <c r="AS31">
+        <v>44924886.50362087</v>
+      </c>
+      <c r="AT31">
+        <v>14974962.16787362</v>
+      </c>
+      <c r="AU31">
+        <v>3.8</v>
+      </c>
+      <c r="AV31">
         <v>15830920.06395777</v>
       </c>
-      <c r="AH31">
-        <v>21495161.00651716</v>
-      </c>
-      <c r="AI31">
-        <v>44924886.50362087</v>
-      </c>
-      <c r="AJ31">
-        <v>14974962.16787362</v>
-      </c>
-      <c r="AK31">
+      <c r="AW31">
         <v>30805882.23183139</v>
       </c>
-      <c r="AM31">
+      <c r="AY31">
         <v>0.406204</v>
       </c>
-      <c r="AN31">
+      <c r="AZ31">
+        <v>506625</v>
+      </c>
+      <c r="BA31">
+        <v>55063.57526760355</v>
+      </c>
+      <c r="BB31">
+        <v>33895.89622476147</v>
+      </c>
+      <c r="BC31">
+        <v>70842.42310975147</v>
+      </c>
+      <c r="BD31">
+        <v>23614.14103658382</v>
+      </c>
+      <c r="BE31">
+        <v>0.035</v>
+      </c>
+      <c r="BF31">
         <v>21063.27590865484</v>
       </c>
-      <c r="AO31">
-        <v>33895.89622476147</v>
-      </c>
-      <c r="AP31">
-        <v>70842.42310975147</v>
-      </c>
-      <c r="AQ31">
-        <v>23614.14103658382</v>
-      </c>
-      <c r="AR31">
+      <c r="BG31">
         <v>44677.41694523866</v>
       </c>
-      <c r="AT31">
+      <c r="BI31">
         <v>0.406204</v>
       </c>
-      <c r="AU31">
+      <c r="BJ31">
         <v>0.119369021131889</v>
       </c>
-      <c r="AV31">
+      <c r="BK31">
         <v>2871999.41177831</v>
       </c>
-      <c r="AW31">
+      <c r="BL31">
         <v>466914.9903536874</v>
       </c>
-      <c r="AX31">
+      <c r="BM31">
         <v>30805882.23183139</v>
       </c>
-      <c r="AY31">
+      <c r="BN31">
         <v>44677.41694523866</v>
       </c>
-      <c r="AZ31">
+      <c r="BO31">
         <v>42013.77213113095</v>
       </c>
-      <c r="BA31">
+      <c r="BP31">
         <v>-25604343.17640013</v>
       </c>
-      <c r="BB31">
+      <c r="BQ31">
         <v>-59835830.99943989</v>
       </c>
     </row>
